--- a/sheets/estimate_mtow_mission2.xlsx
+++ b/sheets/estimate_mtow_mission2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfiyandyhr/Github_Repos/MCEVS/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA020CE-D57D-844D-88F4-00FE9109DA56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168A9ECD-597D-7C44-9F5A-B89B17B74AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15080" windowHeight="18900" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{843CD013-835A-1741-B375-CD508AE79BD2}"/>
   </bookViews>
   <sheets>
     <sheet name="multirotor" sheetId="3" r:id="rId1"/>
@@ -594,30 +594,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -660,6 +636,30 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1190,16 +1190,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45.54</c:v>
+                  <c:v>40.24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.41</c:v>
+                  <c:v>30.62</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>10.63</c:v>
+                  <c:v>11.07</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.75</c:v>
+                  <c:v>13.39</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>4.67</c:v>
@@ -1700,19 +1700,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>42.32</c:v>
+                  <c:v>37.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.83</c:v>
+                  <c:v>17.23</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>13.47</c:v>
+                  <c:v>14.18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.71</c:v>
+                  <c:v>26.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.67</c:v>
+                  <c:v>4.68</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3329,8 +3329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B22671EB-89B6-F54E-A7EC-520F7563A407}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3366,94 +3366,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="32" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="F3" s="24" t="s">
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="F3" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="J3" s="26" t="s">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="J3" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="P3" s="33" t="s">
+      <c r="K3" s="37"/>
+      <c r="L3" s="37"/>
+      <c r="P3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="Q3" s="33" t="s">
+      <c r="Q3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="S3" s="33" t="s">
+      <c r="S3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="T3" s="33" t="s">
+      <c r="T3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="U3" s="33" t="s">
+      <c r="U3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="V3" s="33" t="s">
+      <c r="V3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="X3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" s="33" t="s">
+      <c r="AA3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="AB3" s="33" t="s">
+      <c r="AB3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="AC3" s="33" t="s">
+      <c r="AC3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="AD3" s="33" t="s">
+      <c r="AD3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="AE3" s="33" t="s">
+      <c r="AE3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="AF3" s="33" t="s">
+      <c r="AF3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AG3" s="33" t="s">
+      <c r="AG3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="AH3" s="33" t="s">
+      <c r="AH3" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="AI3" s="33" t="s">
+      <c r="AI3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="AJ3" s="33" t="s">
+      <c r="AJ3" s="23" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3461,7 +3461,7 @@
       <c r="B4" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C4" s="33" t="s">
         <v>109</v>
       </c>
       <c r="F4" s="20" t="s">
@@ -3469,7 +3469,7 @@
       </c>
       <c r="G4" s="20">
         <f xml:space="preserve"> ($C$15*$C$31)/$C$7 * ( ($C$24/2) + SQRT( ($C$24/2)^2 + ($C$15*$C$31)/(2*$C$30*$C$5*PI()*$C$16*$C$16 ) ) )</f>
-        <v>160635.57229467967</v>
+        <v>192243.33346149538</v>
       </c>
       <c r="H4" s="20" t="s">
         <v>32</v>
@@ -3492,14 +3492,14 @@
       </c>
       <c r="R4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q4^2)) - Q4</f>
-        <v>0.10469935964721744</v>
+        <v>0.11127816155015957</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S4^2)) - S4</f>
-        <v>-0.93483959532091043</v>
+        <v>-0.93342212099639377</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -3507,15 +3507,15 @@
       </c>
       <c r="V4" s="8">
         <f xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U4^2)) - U4</f>
-        <v>-0.42223710777383461</v>
+        <v>-0.41917453264718696</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-4.4207954803213621E-2</v>
+        <v>-4.6644971361626306E-2</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.39472396696076317</v>
+        <v>0.39126678133120935</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -3527,17 +3527,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G36</f>
-        <v>-4.6225068217609078E-10</v>
+        <v>7.2191141953226179E-11</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G36</f>
-        <v>-4.6225068217609078E-10</v>
+        <v>7.2191141953226179E-11</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G36</f>
-        <v>-4.6225068217609078E-10</v>
+        <v>7.2191141953226179E-11</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -3547,7 +3547,7 @@
       <c r="B5" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="43">
+      <c r="C5" s="33">
         <v>7</v>
       </c>
       <c r="F5" s="20" t="s">
@@ -3555,7 +3555,7 @@
       </c>
       <c r="G5" s="20">
         <f xml:space="preserve"> $C$15 * $C$31 / $C$5</f>
-        <v>1231.0698232229099</v>
+        <v>1393.2378431061002</v>
       </c>
       <c r="H5" s="20" t="s">
         <v>34</v>
@@ -3565,7 +3565,7 @@
       </c>
       <c r="K5" s="20">
         <f xml:space="preserve"> 0.0327 * ($C$15*2.20462)^0.8903 * 0.3048^2</f>
-        <v>2.5646863018340929</v>
+        <v>2.8633950383163613</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>20</v>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" ref="R5:R34" si="0" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + Q5^2)) - Q5</f>
-        <v>0.10469935964721744</v>
+        <v>0.11127816155015957</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -3587,7 +3587,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" ref="T5:T34" si="1" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + S5^2)) - S5</f>
-        <v>-0.42223710777383461</v>
+        <v>-0.41917453264718696</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="2" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -3595,15 +3595,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" ref="V5:V34" si="3" xml:space="preserve"> $C$18 * TAN($K$17) + $K$20 / (2 * SQRT($C$18^2 + U5^2)) - U5</f>
-        <v>-0.158160054087705</v>
+        <v>-0.15325989156220568</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>-1.6559256384751989E-2</v>
+        <v>-1.705447897241906E-2</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>6.6781043803345805E-2</v>
+        <v>6.4242643419146123E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -3616,31 +3616,31 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>-183.26806206823142</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C15"/>
+        <v>-200.45024950099992</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
         <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C15" ca="1"/>
-        <v>344.58393362632614</v>
+        <v>157.99601575760767</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
         <v>1500</v>
       </c>
       <c r="AG5" s="8">
-        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15"/>
-        <v>210.53753753571721</v>
+        <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C15" ca="1"/>
+        <v>123.2312183149171</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-38584.80649678842</v>
+        <v>-24701.728457537323</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>72547.852860057727</v>
+        <v>19470.041510712832</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -3651,15 +3651,15 @@
       <c r="B6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="43">
+      <c r="C6" s="33">
         <v>0.13</v>
       </c>
       <c r="F6" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="24">
         <f xml:space="preserve"> $C$25/$C$24</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H6" s="20" t="s">
         <v>25</v>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="K6" s="20">
         <f xml:space="preserve"> K5 / ($C$5 * PI() * $C$16^2)</f>
-        <v>0.11662357211913388</v>
+        <v>0.13020670696367315</v>
       </c>
       <c r="P6" s="8">
         <v>2</v>
@@ -3680,7 +3680,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.10469935964721744</v>
+        <v>0.11127816155015957</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.158160054087705</v>
+        <v>-0.15325989156220568</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="2"/>
@@ -3696,15 +3696,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="3"/>
-        <v>-2.4568442289900821E-2</v>
+        <v>-1.8546749796022791E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5723001752822323E-3</v>
+        <v>-2.063848220032213E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>3.885746161421373E-3</v>
+        <v>2.8424728625698133E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -3718,29 +3718,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-183.26806206823142</v>
+        <v>-200.45024950099992</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0, AF5, AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>210.53753753571721</v>
+        <v>123.2312183149171</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>49.726369705221714</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>-9113.2554095643954</v>
+        <v>-376.55068852601954</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>10469.267428328067</v>
+        <v>231.49285281458722</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -3751,7 +3751,7 @@
       <c r="B7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="33">
         <v>0.75</v>
       </c>
       <c r="J7" s="20" t="s">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="K7" s="20">
         <f xml:space="preserve"> K4 * K5</f>
-        <v>1413.7833238860437</v>
+        <v>1578.4465148718941</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>34</v>
@@ -3773,7 +3773,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.10469935964721744</v>
+        <v>0.11127816155015957</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -3781,7 +3781,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4568442289900821E-2</v>
+        <v>-1.8546749796022791E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="2"/>
@@ -3789,15 +3789,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="3"/>
-        <v>4.1033163377521026E-2</v>
+        <v>4.7459732603259308E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>4.2961459299261052E-3</v>
+        <v>5.2812317917528646E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0081209064126972E-3</v>
+        <v>-8.8022378597879579E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -3811,29 +3811,29 @@
         <v>500</v>
       </c>
       <c r="AC7" s="8">
-        <v>-183.26806206823142</v>
+        <v>-200.45024950099992</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0, AF6, AD6)</f>
         <v>1000</v>
       </c>
       <c r="AE7" s="8">
-        <v>49.726369705221714</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
         <v>750</v>
       </c>
       <c r="AG7" s="8">
-        <v>-57.296649768320606</v>
+        <v>-88.554887051654532</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>10500.645966042299</v>
+        <v>17750.849204037018</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>-2849.1543892501163</v>
+        <v>-166.35251776764721</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -3841,17 +3841,17 @@
       </c>
     </row>
     <row r="8" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
       <c r="J8" s="20" t="s">
         <v>69</v>
       </c>
       <c r="K8" s="20">
         <f xml:space="preserve"> K7</f>
-        <v>1413.7833238860437</v>
+        <v>1578.4465148718941</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>34</v>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>4.1033163377521026E-2</v>
+        <v>4.7459732603259308E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -3873,7 +3873,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4568442289900821E-2</v>
+        <v>-1.8546749796022791E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="2"/>
@@ -3881,15 +3881,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="3"/>
-        <v>8.4238439542604904E-3</v>
+        <v>1.4672970634215257E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>3.4565696524191348E-4</v>
+        <v>6.9637526279533221E-4</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.0696072404937879E-4</v>
+        <v>-2.7213591511718023E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -3903,29 +3903,29 @@
         <v>750</v>
       </c>
       <c r="AC8" s="8">
-        <v>-57.296649768320606</v>
+        <v>-88.554887051654532</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="AE8" s="8">
-        <v>49.726369705221714</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
         <v>875</v>
       </c>
       <c r="AG8" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-40.733867350912988</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>84.228764552137832</v>
+        <v>3607.1830224371779</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-73.100097525238652</v>
+        <v>-76.519564507887125</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -3933,17 +3933,17 @@
       </c>
     </row>
     <row r="9" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="F9" s="35" t="s">
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="F9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="G9" s="20">
         <f xml:space="preserve"> K22 + K18 * (K24 * K27 + $C$17 * SIN(K17))</f>
-        <v>15295.654272434074</v>
+        <v>18321.40327368856</v>
       </c>
       <c r="H9" s="20" t="s">
         <v>32</v>
@@ -3957,7 +3957,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>8.4238439542604904E-3</v>
+        <v>1.4672970634215257E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -3965,7 +3965,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-2.4568442289900821E-2</v>
+        <v>-1.8546749796022791E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="2"/>
@@ -3973,15 +3973,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="3"/>
-        <v>-8.0318584140231519E-3</v>
+        <v>-1.8911697807072192E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-6.7659121942445179E-5</v>
+        <v>-2.7749078656632336E-5</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>1.9733024992558214E-4</v>
+        <v>3.507505274457608E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -3995,29 +3995,29 @@
         <v>875</v>
       </c>
       <c r="AC9" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-40.733867350912988</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
         <v>1000</v>
       </c>
       <c r="AE9" s="8">
-        <v>49.726369705221714</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
         <v>937.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>24.69999238993114</v>
+        <v>-18.786053924933753</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>-36.310148182545042</v>
+        <v>765.22862862534976</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>1228.2409532978786</v>
+        <v>-35.290061038738941</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -4028,18 +4028,18 @@
       <c r="B10" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="33">
         <v>250</v>
       </c>
       <c r="D10" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="35" t="s">
+      <c r="F10" s="25" t="s">
         <v>37</v>
       </c>
       <c r="G10" s="20">
         <f>$C$5 * G9</f>
-        <v>107069.57990703853</v>
+        <v>128249.82291581992</v>
       </c>
       <c r="H10" s="20" t="s">
         <v>32</v>
@@ -4053,7 +4053,7 @@
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>8.4238439542604904E-3</v>
+        <v>1.4672970634215257E-2</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
@@ -4061,7 +4061,7 @@
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-8.0318584140231519E-3</v>
+        <v>-1.8911697807072192E-3</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="2"/>
@@ -4069,15 +4069,15 @@
       </c>
       <c r="V10" s="8">
         <f t="shared" si="3"/>
-        <v>2.0704754654471413E-4</v>
+        <v>6.4033982692015823E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>1.7441362232051577E-6</v>
+        <v>9.3956874763179623E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6629765788180125E-6</v>
+        <v>-1.2109913300546944E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -4088,32 +4088,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>937.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-18.786053924933753</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>937.5</v>
+        <v>1000</v>
       </c>
       <c r="AE10" s="8">
-        <v>24.69999238993114</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>906.25</v>
+        <v>968.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>11.758819743851518</v>
+        <v>-8.294543663860054</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>-17.286016959468192</v>
+        <v>155.82174455199257</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>290.44275818770456</v>
+        <v>-15.581502818833139</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -4124,10 +4124,10 @@
       <c r="B11" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="43">
+      <c r="C11" s="33">
         <v>0.85</v>
       </c>
-      <c r="F11" s="35" t="s">
+      <c r="F11" s="25" t="s">
         <v>131</v>
       </c>
       <c r="G11" s="20">
@@ -4137,11 +4137,11 @@
       <c r="H11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
+      <c r="K11" s="40"/>
+      <c r="L11" s="40"/>
       <c r="P11" s="8">
         <v>7</v>
       </c>
@@ -4151,7 +4151,7 @@
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>2.0704754654471413E-4</v>
+        <v>6.4033982692015823E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
@@ -4159,7 +4159,7 @@
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-8.0318584140231519E-3</v>
+        <v>-1.8911697807072192E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="2"/>
@@ -4167,15 +4167,15 @@
       </c>
       <c r="V11" s="8">
         <f t="shared" si="3"/>
-        <v>-3.909759673373342E-3</v>
+        <v>2.2591053763092173E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>-8.0950614795141335E-7</v>
+        <v>1.446595145660243E-5</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>3.1402636129392084E-5</v>
+        <v>-4.2723518191092026E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -4186,32 +4186,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>968.75</v>
       </c>
       <c r="AC11" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-8.294543663860054</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>906.25</v>
+        <v>1000</v>
       </c>
       <c r="AE11" s="8">
-        <v>11.758819743851518</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>890.625</v>
+        <v>984.375</v>
       </c>
       <c r="AG11" s="8">
-        <v>5.1804580046700721</v>
+        <v>-3.1683518312479464</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>-7.6155164274342653</v>
+        <v>26.280032606757054</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>60.916071867508087</v>
+        <v>-5.9518262836741327</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -4222,7 +4222,7 @@
       <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="43">
+      <c r="C12" s="33">
         <v>0.8</v>
       </c>
       <c r="J12" s="20" t="s">
@@ -4230,7 +4230,7 @@
       </c>
       <c r="K12" s="20">
         <f xml:space="preserve"> SQRT( ($C$15*$C$31)^2 + K8^2)</f>
-        <v>8732.6912151840406</v>
+        <v>9879.573173269946</v>
       </c>
       <c r="L12" s="20" t="s">
         <v>34</v>
@@ -4240,35 +4240,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.1015625</v>
+        <v>0.10546875</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>2.0704754654471413E-4</v>
+        <v>2.2591053763092173E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.10546875</v>
+        <v>0.109375</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-3.909759673373342E-3</v>
+        <v>-1.8911697807072192E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="2"/>
-        <v>0.103515625</v>
+        <v>0.107421875</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8506798479405451E-3</v>
+        <v>1.846988688715967E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-3.8317872195583447E-7</v>
+        <v>4.1725420766605522E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>7.2357134378026513E-6</v>
+        <v>-3.4929691934076896E-7</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -4279,32 +4279,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>984.375</v>
       </c>
       <c r="AC12" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-3.1683518312479464</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>890.625</v>
+        <v>1000</v>
       </c>
       <c r="AE12" s="8">
-        <v>5.1804580046700721</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>882.8125</v>
+        <v>992.1875</v>
       </c>
       <c r="AG12" s="8">
-        <v>1.8642358113410751</v>
+        <v>-0.63501774339545136</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>-2.7405141462551774</v>
+        <v>2.0119596301619169</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>9.6575953314544787</v>
+        <v>-1.1928963376052251</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -4312,52 +4312,52 @@
       </c>
     </row>
     <row r="13" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F13" s="24" t="s">
+      <c r="F13" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
       <c r="J13" s="20" t="s">
         <v>113</v>
       </c>
       <c r="K13" s="20">
         <f>$C$15*$C$31/K12</f>
-        <v>0.98680790952239761</v>
+        <v>0.98715447830574232</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.1015625</v>
+        <v>0.107421875</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>2.0704754654471413E-4</v>
+        <v>1.846988688715967E-4</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.103515625</v>
+        <v>0.109375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8506798479405451E-3</v>
+        <v>-1.8911697807072192E-3</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="2"/>
-        <v>0.1025390625</v>
+        <v>0.1083984375</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="3"/>
-        <v>-8.2164525192347793E-4</v>
+        <v>-8.5305477828906406E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-1.7011963354086967E-7</v>
+        <v>-1.5755825263550084E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>1.520602309890813E-6</v>
+        <v>1.6132714179881747E-6</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -4368,32 +4368,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>992.1875</v>
       </c>
       <c r="AC13" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-0.63501774339545136</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>882.8125</v>
+        <v>1000</v>
       </c>
       <c r="AE13" s="8">
-        <v>1.8642358113410751</v>
+        <v>1.8785244192182518</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>878.90625</v>
+        <v>996.09375</v>
       </c>
       <c r="AG13" s="8">
-        <v>0.19935412517969553</v>
+        <v>0.62422607187147605</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>-0.29305992130698622</v>
+        <v>-0.39639463152843157</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>0.37164309929855993</v>
+        <v>1.1726239191232553</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -4401,17 +4401,17 @@
       </c>
     </row>
     <row r="14" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
       <c r="F14" s="20" t="s">
         <v>125</v>
       </c>
       <c r="G14" s="20">
         <f xml:space="preserve"> IF( $C$26&gt;=2*SQRT(($C$15*$C$31)/(2*$C$30*$C$5*PI()*$C$16*$C$16)), ($C$15*$C$31)/$C$7 * ( ($C$26/2) - SQRT( ($C$26/2)^2 - ($C$15*$C$31)/(2*$C$30*$C$5*PI()*$C$16*$C$16 ) ) ), 1/$C$7 * SQRT(($C$15*$C$31)^3/(2*$C$30*$C$5*PI()*$C$16*$C$16)) )</f>
-        <v>145312.45052172983</v>
+        <v>174951.10564858653</v>
       </c>
       <c r="H14" s="20" t="s">
         <v>32</v>
@@ -4421,35 +4421,35 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.1015625</v>
+        <v>0.107421875</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>2.0704754654471413E-4</v>
+        <v>1.846988688715967E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.1025390625</v>
+        <v>0.1083984375</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-8.2164525192347793E-4</v>
+        <v>-8.5305477828906406E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="2"/>
-        <v>0.10205078125</v>
+        <v>0.10791015625</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="3"/>
-        <v>-3.0725589755629945E-4</v>
+        <v>-3.3413252401551241E-4</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>-6.3616579750425823E-8</v>
+        <v>-6.1713899238876761E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>2.5245534935261996E-7</v>
+        <v>2.8503334619321829E-7</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -4460,32 +4460,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>992.1875</v>
       </c>
       <c r="AC14" s="8">
-        <v>-1.4700469380446748</v>
+        <v>-0.63501774339545136</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>878.90625</v>
+        <v>996.09375</v>
       </c>
       <c r="AE14" s="8">
-        <v>0.19935412517969553</v>
+        <v>0.62422607187147605</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>876.953125</v>
+        <v>994.140625</v>
       </c>
       <c r="AG14" s="8">
-        <v>-0.63478078082050615</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>0.93315754317479294</v>
+        <v>3.0342282711405852E-3</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>-0.12654616724135606</v>
+        <v>-2.9826637358634704E-3</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -4493,14 +4493,14 @@
       </c>
     </row>
     <row r="15" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="26">
         <f>AF44</f>
-        <v>878.43922146385012</v>
-      </c>
-      <c r="D15" s="36" t="s">
+        <v>994.15544360272179</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="20" t="s">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="G15" s="20">
         <f xml:space="preserve"> $C$15 * $C$31 / $C$5</f>
-        <v>1231.0698232229099</v>
+        <v>1393.2378431061002</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>34</v>
@@ -4518,35 +4518,35 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.1015625</v>
+        <v>0.107421875</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>2.0704754654471413E-4</v>
+        <v>1.846988688715967E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.10205078125</v>
+        <v>0.10791015625</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-3.0725589755629945E-4</v>
+        <v>-3.3413252401551241E-4</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="2"/>
-        <v>0.101806640625</v>
+        <v>0.107666015625</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="3"/>
-        <v>-5.0093407929954759E-5</v>
+        <v>-7.4705437238559158E-5</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.037171720996066E-8</v>
+        <v>-1.3798009756519935E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>1.5391495015172098E-8</v>
+        <v>2.4961516302202225E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -4557,32 +4557,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>876.953125</v>
+        <v>994.140625</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.63478078082050615</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>878.90625</v>
+        <v>996.09375</v>
       </c>
       <c r="AE15" s="8">
-        <v>0.19935412517969553</v>
+        <v>0.62422607187147605</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>877.9296875</v>
+        <v>995.1171875</v>
       </c>
       <c r="AG15" s="8">
-        <v>-0.21757151482376003</v>
+        <v>0.3098790503379405</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>0.13811021606412671</v>
+        <v>-1.4806574854776106E-3</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-4.337377900171184E-2</v>
+        <v>0.19343458234771599</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -4593,7 +4593,7 @@
       <c r="B16" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="43">
+      <c r="C16" s="33">
         <v>1</v>
       </c>
       <c r="D16" s="20" t="s">
@@ -4602,52 +4602,52 @@
       <c r="F16" s="20" t="s">
         <v>132</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="24">
         <f xml:space="preserve"> $C$27/$C$26</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.1015625</v>
+        <v>0.107421875</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>2.0704754654471413E-4</v>
+        <v>1.846988688715967E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.101806640625</v>
+        <v>0.107666015625</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-5.0093407929954759E-5</v>
+        <v>-7.4705437238559158E-5</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="2"/>
-        <v>0.1016845703125</v>
+        <v>0.1075439453125</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="3"/>
-        <v>7.8479764799591067E-5</v>
+        <v>5.4999567482283407E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>1.6249042755161549E-8</v>
+        <v>1.0158357902404797E-8</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>-3.9313188723528195E-9</v>
+        <v>-4.1087667366956219E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -4658,32 +4658,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>877.9296875</v>
+        <v>994.140625</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.21757151482376003</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>878.90625</v>
+        <v>995.1171875</v>
       </c>
       <c r="AE16" s="8">
-        <v>0.19935412517969553</v>
+        <v>0.3098790503379405</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>878.41796875</v>
+        <v>994.62890625</v>
       </c>
       <c r="AG16" s="8">
-        <v>-9.0742833325521133E-3</v>
+        <v>0.15258850146915393</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>1.9743055706033606E-3</v>
+        <v>-7.2909513131566453E-4</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>-1.8089958153936186E-3</v>
+        <v>4.7283979927750859E-2</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -4694,7 +4694,7 @@
       <c r="B17" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="33">
         <v>30</v>
       </c>
       <c r="D17" s="20" t="s">
@@ -4705,7 +4705,7 @@
       </c>
       <c r="K17" s="20">
         <f xml:space="preserve"> ACOS(K13)</f>
-        <v>0.16261118139904118</v>
+        <v>0.16045633379628454</v>
       </c>
       <c r="L17" s="20" t="s">
         <v>49</v>
@@ -4715,35 +4715,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.1016845703125</v>
+        <v>0.1075439453125</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>7.8479764799591067E-5</v>
+        <v>5.4999567482283407E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.101806640625</v>
+        <v>0.107666015625</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-5.0093407929954759E-5</v>
+        <v>-7.4705437238559158E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="2"/>
-        <v>0.10174560546875</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="3"/>
-        <v>1.4193851858135265E-5</v>
+        <v>-9.8522224719899132E-6</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>1.1139301554266942E-9</v>
+        <v>-5.4186797469867825E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>-7.110184112269161E-10</v>
+        <v>7.3601458754156463E-10</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -4754,32 +4754,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>878.41796875</v>
+        <v>994.140625</v>
       </c>
       <c r="AC17" s="8">
-        <v>-9.0742833325521133E-3</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>878.90625</v>
+        <v>994.62890625</v>
       </c>
       <c r="AE17" s="8">
-        <v>0.19935412517969553</v>
+        <v>0.15258850146915393</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>878.662109375</v>
+        <v>994.384765625</v>
       </c>
       <c r="AG17" s="8">
-        <v>9.5148731653353025E-2</v>
+        <v>7.3914915862928865E-2</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>-8.6340654975549508E-4</v>
+        <v>-3.5317867839578063E-4</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>1.8968292160711796E-2</v>
+        <v>1.127856624774291E-2</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -4790,20 +4790,20 @@
       <c r="B18" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="43">
+      <c r="C18" s="33">
         <v>0.3</v>
       </c>
-      <c r="F18" s="26" t="s">
+      <c r="F18" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
       <c r="J18" s="20" t="s">
         <v>33</v>
       </c>
       <c r="K18" s="20">
         <f xml:space="preserve"> K12 / $C$5</f>
-        <v>1247.527316454863</v>
+        <v>1411.3675961814208</v>
       </c>
       <c r="L18" s="20" t="s">
         <v>34</v>
@@ -4813,35 +4813,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.10174560546875</v>
+        <v>0.1075439453125</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>1.4193851858135265E-5</v>
+        <v>5.4999567482283407E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.101806640625</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.0093407929954759E-5</v>
+        <v>-9.8522224719899132E-6</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="2"/>
-        <v>0.101776123046875</v>
+        <v>0.107574462890625</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="3"/>
-        <v>-1.7949609736306327E-5</v>
+        <v>2.2573850670476459E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5477410150847438E-10</v>
+        <v>1.2415520232858586E-9</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>8.991571227042805E-10</v>
+        <v>-2.2240259885501272E-10</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -4852,32 +4852,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>878.41796875</v>
+        <v>994.140625</v>
       </c>
       <c r="AC18" s="8">
-        <v>-9.0742833325521133E-3</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>878.662109375</v>
+        <v>994.384765625</v>
       </c>
       <c r="AE18" s="8">
-        <v>9.5148731653353025E-2</v>
+        <v>7.3914915862928865E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>878.5400390625</v>
+        <v>994.2626953125</v>
       </c>
       <c r="AG18" s="8">
-        <v>4.3039426864254438E-2</v>
+        <v>3.4571757496792088E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-3.905519538368997E-4</v>
+        <v>-1.651900361380271E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>4.0951468772210588E-3</v>
+        <v>2.5553685466089674E-3</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -4890,7 +4890,7 @@
       </c>
       <c r="G19" s="20">
         <f xml:space="preserve"> (G4*G6 + G10*G11 + G14*G16)/3600</f>
-        <v>36455.266471358969</v>
+        <v>51752.567794699076</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>40</v>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="K19" s="20">
         <f xml:space="preserve"> $C$17 * COS(K17) / ($C$18 * $C$16)</f>
-        <v>98.680790952239761</v>
+        <v>98.715447830574234</v>
       </c>
       <c r="L19" s="20" t="s">
         <v>51</v>
@@ -4910,35 +4910,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.10174560546875</v>
+        <v>0.107574462890625</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>1.4193851858135265E-5</v>
+        <v>2.2573850670476459E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.101776123046875</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-1.7949609736306327E-5</v>
+        <v>-9.8522224719899132E-6</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="2"/>
-        <v>0.1017608642578125</v>
+        <v>0.1075897216796875</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="3"/>
-        <v>-1.8778368571642501E-6</v>
+        <v>6.3608586325925032E-6</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-2.6653738164335677E-11</v>
+        <v>1.4358907290815425E-10</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>3.3706438734550295E-11</v>
+        <v>-6.2668594361178893E-11</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -4949,32 +4949,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>878.41796875</v>
+        <v>994.140625</v>
       </c>
       <c r="AC19" s="8">
-        <v>-9.0742833325521133E-3</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>878.5400390625</v>
+        <v>994.2626953125</v>
       </c>
       <c r="AE19" s="8">
-        <v>4.3039426864254438E-2</v>
+        <v>3.4571757496792088E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>878.47900390625</v>
+        <v>994.20166015625</v>
       </c>
       <c r="AG19" s="8">
-        <v>1.698312244451472E-2</v>
+        <v>1.4896448817921737E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5410966493295162E-4</v>
+        <v>-7.1177894811656452E-5</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>7.3094385637736937E-4</v>
+        <v>5.149964160965655E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -4982,17 +4982,17 @@
       </c>
     </row>
     <row r="20" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="F20" s="20" t="s">
         <v>41</v>
       </c>
       <c r="G20" s="20">
         <f xml:space="preserve"> G6 + G11 + G16</f>
-        <v>1160</v>
+        <v>1320</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>25</v>
@@ -5002,42 +5002,42 @@
       </c>
       <c r="K20" s="20">
         <f xml:space="preserve"> K18 / ($C$30 * PI() * $C$16^2 * K19^2 * $C$16^2)</f>
-        <v>3.3288855109522432E-2</v>
+        <v>3.7634308500222431E-2</v>
       </c>
       <c r="P20" s="8">
         <v>16</v>
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.10174560546875</v>
+        <v>0.1075897216796875</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.4193851858135265E-5</v>
+        <v>6.3608586325925032E-6</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.1017608642578125</v>
+        <v>0.10760498046875</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8778368571642501E-6</v>
+        <v>-9.8522224719899132E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175323486328125</v>
+        <v>0.10759735107421875</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="3"/>
-        <v>6.1580180218401281E-6</v>
+        <v>-1.7456707873397814E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>8.7405995541725953E-11</v>
+        <v>-1.1103965097314801E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1563753208493079E-11</v>
+        <v>1.719873695972532E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -5048,32 +5048,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>878.41796875</v>
+        <v>994.140625</v>
       </c>
       <c r="AC20" s="8">
-        <v>-9.0742833325521133E-3</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>878.47900390625</v>
+        <v>994.20166015625</v>
       </c>
       <c r="AE20" s="8">
-        <v>1.698312244451472E-2</v>
+        <v>1.4896448817921737E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>878.448486328125</v>
+        <v>994.171142578125</v>
       </c>
       <c r="AG20" s="8">
-        <v>3.9553898677695543E-3</v>
+        <v>5.059287472363394E-3</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-3.5892328350846771E-5</v>
+        <v>-2.4174179761324701E-5</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>6.7174870440123223E-5</v>
+        <v>7.5365416887213939E-5</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -5084,7 +5084,7 @@
       <c r="B21" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C21" s="43">
+      <c r="C21" s="33">
         <v>400</v>
       </c>
       <c r="D21" s="20" t="s">
@@ -5093,7 +5093,7 @@
       <c r="J21" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="P21" s="8">
@@ -5101,35 +5101,35 @@
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175323486328125</v>
+        <v>0.1075897216796875</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>6.1580180218401281E-6</v>
+        <v>6.3608586325925032E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.1017608642578125</v>
+        <v>0.10759735107421875</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8778368571642501E-6</v>
+        <v>-1.7456707873397814E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175704956054688</v>
+        <v>0.10759353637695312</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="3"/>
-        <v>2.1400932125603678E-6</v>
+        <v>2.3075967058305835E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>1.3178732571364481E-11</v>
+        <v>1.4678296426824492E-11</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>-4.0187459123129042E-12</v>
+        <v>-4.0283041583299605E-12</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -5140,32 +5140,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>878.41796875</v>
+        <v>994.140625</v>
       </c>
       <c r="AC21" s="8">
-        <v>-9.0742833325521133E-3</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>878.448486328125</v>
+        <v>994.171142578125</v>
       </c>
       <c r="AE21" s="8">
-        <v>3.9553898677695543E-3</v>
+        <v>5.059287472363394E-3</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>878.4332275390625</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AG21" s="8">
-        <v>-2.5585796964264773E-3</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>2.321727709428903E-5</v>
+        <v>-6.763160337400454E-7</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>-1.012018020712619E-5</v>
+        <v>7.1610490820498836E-7</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -5176,23 +5176,23 @@
       <c r="B22" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="43">
+      <c r="C22" s="33">
         <v>30000</v>
       </c>
       <c r="D22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="38" t="s">
         <v>83</v>
       </c>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
       <c r="J22" s="20" t="s">
         <v>54</v>
       </c>
       <c r="K22" s="20">
         <f xml:space="preserve"> ($C$6 * K21 / 8) * (1 + 4.65 *$C$18^ 2) * ( PI() * $C$30 * K19^3 *$C$16^ 5)</f>
-        <v>1022.9343875203535</v>
+        <v>1024.0125354892409</v>
       </c>
       <c r="L22" s="20" t="s">
         <v>32</v>
@@ -5202,35 +5202,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175704956054688</v>
+        <v>0.10759353637695312</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>2.1400932125603678E-6</v>
+        <v>2.3075967058305835E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.1017608642578125</v>
+        <v>0.10759735107421875</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8778368571642501E-6</v>
+        <v>-1.7456707873397814E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175895690917969</v>
+        <v>0.10759544372558594</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="3"/>
-        <v>1.3112883526233965E-7</v>
+        <v>2.8096365503604837E-7</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>2.8062793031587969E-13</v>
+        <v>6.4835080481930563E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-2.4623855989264058E-13</v>
+        <v>-4.9047004490064131E-13</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -5241,32 +5241,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>878.4332275390625</v>
+        <v>994.140625</v>
       </c>
       <c r="AC22" s="8">
-        <v>-2.5585796964264773E-3</v>
+        <v>-4.7781787244502993E-3</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>878.448486328125</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AE22" s="8">
-        <v>3.9553898677695543E-3</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>878.44085693359375</v>
+        <v>994.14825439453125</v>
       </c>
       <c r="AG22" s="8">
-        <v>6.97581057863772E-4</v>
+        <v>-2.3192586717186714E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>-1.7848167312619507E-6</v>
+        <v>1.1081832441703017E-5</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>2.7592050482223308E-6</v>
+        <v>-3.2827399654340684E-7</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -5277,18 +5277,18 @@
       <c r="B23" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C23" s="43">
+      <c r="C23" s="33">
         <v>240</v>
       </c>
       <c r="D23" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="36" t="s">
+      <c r="F23" s="26" t="s">
         <v>119</v>
       </c>
       <c r="G23" s="20">
         <f>C15</f>
-        <v>878.43922146385012</v>
+        <v>994.15544360272179</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>13</v>
@@ -5296,44 +5296,44 @@
       <c r="J23" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="K23" s="44">
+      <c r="K23" s="34">
         <f>U34</f>
-        <v>0.1017590812407434</v>
+        <v>0.10759570775553584</v>
       </c>
       <c r="P23" s="8">
         <v>19</v>
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175895690917969</v>
+        <v>0.10759544372558594</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.3112883526233965E-7</v>
+        <v>2.8096365503604837E-7</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.1017608642578125</v>
+        <v>0.10759735107421875</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-1.8778368571642501E-6</v>
+        <v>-1.7456707873397814E-6</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175991058349609</v>
+        <v>0.10759639739990234</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="3"/>
-        <v>-8.7335384657549753E-7</v>
+        <v>-7.3235339220767415E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>-1.1452187267332907E-13</v>
+        <v>-2.0576468585271679E-13</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>1.6400160424456408E-12</v>
+        <v>1.2784479227861303E-12</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -5344,32 +5344,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>878.4332275390625</v>
+        <v>994.14825439453125</v>
       </c>
       <c r="AC23" s="8">
-        <v>-2.5585796964264773E-3</v>
+        <v>-2.3192586717186714E-3</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>878.44085693359375</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AE23" s="8">
-        <v>6.97581057863772E-4</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>878.43704223632812</v>
+        <v>994.15206909179688</v>
       </c>
       <c r="AG23" s="8">
-        <v>-9.3049716565474228E-4</v>
+        <v>-1.0888556366808189E-3</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>2.380751155626608E-6</v>
+        <v>2.5253378776217441E-6</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>-6.4909719715667659E-7</v>
+        <v>-1.5411950200757359E-7</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -5380,18 +5380,18 @@
       <c r="B24" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="C24" s="43">
+      <c r="C24" s="33">
         <v>2.54</v>
       </c>
       <c r="D24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="37" t="s">
+      <c r="F24" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G24" s="20">
         <f xml:space="preserve"> G19 / ($C$10 * $C$11 * $C$12)</f>
-        <v>214.44274394917042</v>
+        <v>304.42686938058279</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>13</v>
@@ -5401,7 +5401,7 @@
       </c>
       <c r="K24" s="20">
         <f xml:space="preserve"> K19 * $C$16 * K23 - $C$17 * SIN(K17)</f>
-        <v>5.1848019213996528</v>
+        <v>5.8282976202040606</v>
       </c>
       <c r="L24" s="20" t="s">
         <v>18</v>
@@ -5411,35 +5411,35 @@
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175895690917969</v>
+        <v>0.10759544372558594</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>1.3112883526233965E-7</v>
+        <v>2.8096365503604837E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175991058349609</v>
+        <v>0.10759639739990234</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-8.7335384657549753E-7</v>
+        <v>-7.3235339220767415E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175943374633789</v>
+        <v>0.10759592056274414</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="3"/>
-        <v>-3.7111246456444924E-7</v>
+        <v>-2.2569482510670369E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-4.8663545229672527E-14</v>
+        <v>-6.3412042984701169E-14</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>3.2411249843947475E-13</v>
+        <v>1.6528837077061219E-13</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -5450,32 +5450,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>878.43704223632812</v>
+        <v>994.15206909179688</v>
       </c>
       <c r="AC24" s="8">
-        <v>-9.3049716565474228E-4</v>
+        <v>-1.0888556366808189E-3</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>878.44085693359375</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AE24" s="8">
-        <v>6.97581057863772E-4</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>878.43894958496094</v>
+        <v>994.15397644042969</v>
       </c>
       <c r="AG24" s="8">
-        <v>-1.1562488322169884E-4</v>
+        <v>-4.7365590353365405E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>1.0758862611695134E-7</v>
+        <v>5.1574290040976539E-7</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>-8.0657728353167779E-8</v>
+        <v>-6.7042507304347804E-8</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -5486,18 +5486,18 @@
       <c r="B25" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="43">
-        <v>152.4</v>
+      <c r="C25" s="33">
+        <v>304.8</v>
       </c>
       <c r="D25" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F25" s="28" t="s">
         <v>85</v>
       </c>
       <c r="G25" s="20">
         <f xml:space="preserve"> $C$32 * ($C$5 * 0.144 * (2*$C$16*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592)</f>
-        <v>39.928505916094537</v>
+        <v>45.950108197655645</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>13</v>
@@ -5507,42 +5507,42 @@
       </c>
       <c r="K25" s="20">
         <f xml:space="preserve"> 1/$C$7 - K22 * SQRT( (2*$C$30*PI()*$C$16^2) / K18^3 )</f>
-        <v>1.2689266907018282</v>
+        <v>1.2797532927314186</v>
       </c>
       <c r="P25" s="8">
         <v>21</v>
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175895690917969</v>
+        <v>0.10759544372558594</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>1.3112883526233965E-7</v>
+        <v>2.8096365503604837E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175943374633789</v>
+        <v>0.10759592056274414</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-3.7111246456444924E-7</v>
+        <v>-2.2569482510670369E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175919532775879</v>
+        <v>0.10759568214416504</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="3"/>
-        <v>-1.1999180438149182E-7</v>
+        <v>2.7634425830980192E-8</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-1.5734385549571526E-14</v>
+        <v>7.764269286294783E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>4.453045425155071E-14</v>
+        <v>-6.2369469048472492E-15</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -5553,32 +5553,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>878.43894958496094</v>
+        <v>994.15397644042969</v>
       </c>
       <c r="AC25" s="8">
-        <v>-1.1562488322169884E-4</v>
+        <v>-4.7365590353365405E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>878.44085693359375</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AE25" s="8">
-        <v>6.97581057863772E-4</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>878.43990325927734</v>
+        <v>994.15493011474609</v>
       </c>
       <c r="AG25" s="8">
-        <v>2.909782223809998E-4</v>
+        <v>-1.6700664173185942E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-3.364432298286062E-8</v>
+        <v>7.9103681785625122E-8</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>2.0298089618385774E-7</v>
+        <v>-2.3638561062265422E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -5589,18 +5589,18 @@
       <c r="B26" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="43">
+      <c r="C26" s="33">
         <v>1.524</v>
       </c>
       <c r="D26" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="39" t="s">
+      <c r="F26" s="29" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="20">
         <f xml:space="preserve"> 0.2138 * (G4/1000)</f>
-        <v>34.343885356602513</v>
+        <v>41.101624694067709</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>13</v>
@@ -5608,7 +5608,7 @@
       <c r="J26" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K26" s="43">
+      <c r="K26" s="33">
         <v>1.1499999999999999</v>
       </c>
       <c r="P26" s="8">
@@ -5616,35 +5616,35 @@
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175895690917969</v>
+        <v>0.10759568214416504</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>1.3112883526233965E-7</v>
+        <v>2.7634425830980192E-8</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175919532775879</v>
+        <v>0.10759592056274414</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1999180438149182E-7</v>
+        <v>-2.2569482510670369E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175907611846924</v>
+        <v>0.10759580135345459</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="3"/>
-        <v>5.5685179939368723E-9</v>
+        <v>-9.9030196931693126E-8</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>7.3019327868232218E-16</v>
+        <v>-2.7366426321362359E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>-6.6817652182329044E-16</v>
+        <v>2.2350602976780904E-14</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -5655,32 +5655,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>878.43894958496094</v>
+        <v>994.15493011474609</v>
       </c>
       <c r="AC26" s="8">
-        <v>-1.1562488322169884E-4</v>
+        <v>-1.6700664173185942E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>878.43990325927734</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AE26" s="8">
-        <v>2.909782223809998E-4</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>878.43942642211914</v>
+        <v>994.1554069519043</v>
       </c>
       <c r="AG26" s="8">
-        <v>8.7676703401484701E-5</v>
+        <v>-1.1781804232668946E-5</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0137608592060193E-8</v>
+        <v>1.9676395584402477E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>2.5512011299990175E-8</v>
+        <v>-1.6676276816868202E-9</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -5691,18 +5691,18 @@
       <c r="B27" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="43">
-        <v>152.4</v>
+      <c r="C27" s="33">
+        <v>304.8</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="29" t="s">
         <v>117</v>
       </c>
       <c r="G27" s="20">
         <f xml:space="preserve"> 2.20462 * (49.9/398 * (G4/$C$5/1000 - 2) + 0.1) * 0.453592 * $C$5</f>
-        <v>19.084672935677524</v>
+        <v>23.047547608909916</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>13</v>
@@ -5712,42 +5712,42 @@
       </c>
       <c r="K27" s="20">
         <f xml:space="preserve"> 1/$C$35 * LN( EXP($C$35 * K25) + EXP($C$35 * K26) )</f>
-        <v>1.2698542592177262</v>
+        <v>1.280426197517371</v>
       </c>
       <c r="P27" s="8">
         <v>23</v>
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907611846924</v>
+        <v>0.10759568214416504</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>5.5685179939368723E-9</v>
+        <v>2.7634425830980192E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175919532775879</v>
+        <v>0.10759580135345459</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-1.1999180438149182E-7</v>
+        <v>-9.9030196931693126E-8</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175913572311401</v>
+        <v>0.10759574174880981</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="3"/>
-        <v>-5.721164254846034E-8</v>
+        <v>-3.5697884870344865E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-3.1858406099378577E-16</v>
+        <v>-9.8649055177241513E-16</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>6.8649282210186873E-15</v>
+        <v>3.5351685687551606E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -5758,32 +5758,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>878.43894958496094</v>
+        <v>994.1554069519043</v>
       </c>
       <c r="AC27" s="8">
-        <v>-1.1562488322169884E-4</v>
+        <v>-1.1781804232668946E-5</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>878.43942642211914</v>
+        <v>994.1558837890625</v>
       </c>
       <c r="AE27" s="8">
-        <v>8.7676703401484701E-5</v>
+        <v>1.4154264056287502E-4</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>878.43918800354004</v>
+        <v>994.1556453704834</v>
       </c>
       <c r="AG27" s="8">
-        <v>-1.3974081525702786E-5</v>
+        <v>6.488042754426715E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>1.6157515445398838E-9</v>
+        <v>-7.6440849585841761E-10</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>-1.22520140123721E-9</v>
+        <v>9.1833470354638617E-9</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -5791,12 +5791,12 @@
       </c>
     </row>
     <row r="28" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F28" s="40" t="s">
+      <c r="F28" s="30" t="s">
         <v>94</v>
       </c>
       <c r="G28" s="20">
         <f xml:space="preserve"> $C$32 * (14.86 * ($C$15*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
-        <v>112.29399581528214</v>
+        <v>114.31295905483481</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>13</v>
@@ -5806,35 +5806,35 @@
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907611846924</v>
+        <v>0.10759568214416504</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>5.5685179939368723E-9</v>
+        <v>2.7634425830980192E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175913572311401</v>
+        <v>0.10759574174880981</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-5.721164254846034E-8</v>
+        <v>-3.5697884870344865E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175910592079163</v>
+        <v>0.10759571194648743</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="3"/>
-        <v>-2.582156211072828E-8</v>
+        <v>-4.0317293392710951E-9</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>-1.43787833245149E-16</v>
+        <v>-1.1141452539667384E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>1.4772939815218534E-15</v>
+        <v>1.4392420978169114E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -5845,32 +5845,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>878.43918800354004</v>
+        <v>994.1554069519043</v>
       </c>
       <c r="AC28" s="8">
-        <v>-1.3974081525702786E-5</v>
+        <v>-1.1781804232668946E-5</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>878.43942642211914</v>
+        <v>994.1556453704834</v>
       </c>
       <c r="AE28" s="8">
-        <v>8.7676703401484701E-5</v>
+        <v>6.488042754426715E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>878.43930721282959</v>
+        <v>994.15552616119385</v>
       </c>
       <c r="AG28" s="8">
-        <v>3.6018680361848965E-5</v>
+        <v>2.559915424171777E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>-5.0332797582470738E-10</v>
+        <v>-3.0160422379781564E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>3.1579991549987134E-9</v>
+        <v>1.6608840719742889E-9</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -5878,17 +5878,17 @@
       </c>
     </row>
     <row r="29" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="F29" s="40" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="F29" s="30" t="s">
         <v>95</v>
       </c>
       <c r="G29" s="20">
         <f xml:space="preserve"> $C$32 * (0.054 * (0.7*3.28084)^0.501 * ($C$15*2.20462*5.7)^0.684 * 0.453592)</f>
-        <v>17.314472249451377</v>
+        <v>18.84383014762896</v>
       </c>
       <c r="H29" s="20" t="s">
         <v>13</v>
@@ -5898,35 +5898,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907611846924</v>
+        <v>0.10759568214416504</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>5.5685179939368723E-9</v>
+        <v>2.7634425830980192E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175910592079163</v>
+        <v>0.10759571194648743</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-2.582156211072828E-8</v>
+        <v>-4.0317293392710951E-9</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175909101963043</v>
+        <v>0.10759569704532623</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="3"/>
-        <v>-1.0126522009823447E-8</v>
+        <v>1.1801348287487912E-8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>-5.6389720027699647E-17</v>
+        <v>3.2612348395614979E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>2.6148261704231309E-16</v>
+        <v>-4.7579842133621705E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -5937,32 +5937,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>878.43918800354004</v>
+        <v>994.1554069519043</v>
       </c>
       <c r="AC29" s="8">
-        <v>-1.3974081525702786E-5</v>
+        <v>-1.1781804232668946E-5</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>878.43930721282959</v>
+        <v>994.15552616119385</v>
       </c>
       <c r="AE29" s="8">
-        <v>3.6018680361848965E-5</v>
+        <v>2.559915424171777E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>878.43924760818481</v>
+        <v>994.15546655654907</v>
       </c>
       <c r="AG29" s="8">
-        <v>1.0189667534632463E-5</v>
+        <v>5.9585161125141894E-6</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>-1.4239124484876096E-10</v>
+        <v>-7.0202070354845794E-11</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>3.6701837792343624E-10</v>
+        <v>1.5253297301601129E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -5973,13 +5973,13 @@
       <c r="B30" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="43">
+      <c r="C30" s="33">
         <v>1.2250000000000001</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="40" t="s">
+      <c r="F30" s="30" t="s">
         <v>96</v>
       </c>
       <c r="G30" s="20">
@@ -5994,35 +5994,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907611846924</v>
+        <v>0.10759569704532623</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>5.5685179939368723E-9</v>
+        <v>1.1801348287487912E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175909101963043</v>
+        <v>0.10759571194648743</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-1.0126522009823447E-8</v>
+        <v>-4.0317293392710951E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175908356904984</v>
+        <v>0.10759570449590683</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="3"/>
-        <v>-2.2790019871266054E-9</v>
+        <v>3.8848094879861961E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>-1.269066357353239E-17</v>
+        <v>4.5845989798262687E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>2.3078363783068941E-17</v>
+        <v>-1.5662500390192668E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -6033,32 +6033,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>878.43918800354004</v>
+        <v>994.1554069519043</v>
       </c>
       <c r="AC30" s="8">
-        <v>-1.3974081525702786E-5</v>
+        <v>-1.1781804232668946E-5</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>878.43924760818481</v>
+        <v>994.15546655654907</v>
       </c>
       <c r="AE30" s="8">
-        <v>1.0189667534632463E-5</v>
+        <v>5.9585161125141894E-6</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>878.43921780586243</v>
+        <v>994.15543675422668</v>
       </c>
       <c r="AG30" s="8">
-        <v>-1.8922068534266145E-6</v>
+        <v>-2.9116438327037031E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>2.6441852833277054E-11</v>
+        <v>3.4304417632172923E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-1.9280958743170221E-11</v>
+        <v>-1.7349076691067584E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -6069,13 +6069,13 @@
       <c r="B31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="43">
+      <c r="C31" s="33">
         <v>9.81</v>
       </c>
       <c r="D31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="40" t="s">
+      <c r="F31" s="30" t="s">
         <v>97</v>
       </c>
       <c r="G31" s="20">
@@ -6090,35 +6090,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907611846924</v>
+        <v>0.10759570449590683</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>5.5685179939368723E-9</v>
+        <v>3.8848094879861961E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175908356904984</v>
+        <v>0.10759571194648743</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2790019871266054E-9</v>
+        <v>-4.0317293392710951E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175907984375954</v>
+        <v>0.10759570822119713</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="3"/>
-        <v>1.6447579964662395E-9</v>
+        <v>-7.3459932581343423E-11</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>9.1588644989938135E-18</v>
+        <v>-2.8537784307882923E-19</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>-3.7484067422889341E-18</v>
+        <v>2.9617056544907891E-19</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -6129,32 +6129,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>878.43921780586243</v>
+        <v>994.15543675422668</v>
       </c>
       <c r="AC31" s="8">
-        <v>-1.8922068534266145E-6</v>
+        <v>-2.9116438327037031E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>878.43924760818481</v>
+        <v>994.15546655654907</v>
       </c>
       <c r="AE31" s="8">
-        <v>1.0189667534632463E-5</v>
+        <v>5.9585161125141894E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>878.43923270702362</v>
+        <v>994.15545165538788</v>
       </c>
       <c r="AG31" s="8">
-        <v>4.1487304542897618E-6</v>
+        <v>1.5234363672789186E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>-7.8502561986267993E-12</v>
+        <v>-4.4357041033041969E-12</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>4.2274184020017375E-11</v>
+        <v>9.0774201408215211E-12</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -6165,15 +6165,15 @@
       <c r="B32" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="43">
+      <c r="C32" s="33">
         <v>0.8</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="31" t="s">
         <v>98</v>
       </c>
       <c r="G32" s="20">
         <f xml:space="preserve"> $C$32 * (0.0268 * $C$15)</f>
-        <v>18.833736908184946</v>
+        <v>21.314692710842358</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>13</v>
@@ -6183,35 +6183,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907984375954</v>
+        <v>0.10759570449590683</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>1.6447579964662395E-9</v>
+        <v>3.8848094879861961E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175908356904984</v>
+        <v>0.10759570822119713</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2790019871266054E-9</v>
+        <v>-7.3459932581343423E-11</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175908170640469</v>
+        <v>0.10759570635855198</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="3"/>
-        <v>-3.1712199533018293E-10</v>
+        <v>1.9056747846413202E-9</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>-5.2158893767464784E-19</v>
+        <v>7.4031834843906509E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>7.2272165751904097E-19</v>
+        <v>-1.3999074120171753E-19</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -6222,32 +6222,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>878.43921780586243</v>
+        <v>994.15543675422668</v>
       </c>
       <c r="AC32" s="8">
-        <v>-1.8922068534266145E-6</v>
+        <v>-2.9116438327037031E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>878.43923270702362</v>
+        <v>994.15545165538788</v>
       </c>
       <c r="AE32" s="8">
-        <v>4.1487304542897618E-6</v>
+        <v>1.5234363672789186E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922525644302</v>
+        <v>994.15544420480728</v>
       </c>
       <c r="AG32" s="8">
-        <v>1.9608941670412605E-6</v>
+        <v>2.5605584141885629E-7</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>-3.7104173817197459E-12</v>
+        <v>-7.4554341149497033E-13</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>8.1352213484432329E-12</v>
+        <v>3.9008478087168929E-13</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -6255,12 +6255,12 @@
       </c>
     </row>
     <row r="33" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F33" s="41" t="s">
+      <c r="F33" s="31" t="s">
         <v>99</v>
       </c>
       <c r="G33" s="20">
         <f xml:space="preserve"> $C$32 * (11.5 * ($C$15*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>5.435899241729385</v>
+        <v>5.7117399838242342</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>13</v>
@@ -6270,35 +6270,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175907984375954</v>
+        <v>0.10759570635855198</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>1.6447579964662395E-9</v>
+        <v>1.9056747846413202E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175908170640469</v>
+        <v>0.10759570822119713</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1712199533018293E-10</v>
+        <v>-7.3459932581343423E-11</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="2"/>
-        <v>0.10175908077508211</v>
+        <v>0.10759570728987455</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="3"/>
-        <v>6.6381800056802831E-10</v>
+        <v>9.161074121522006E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>1.0918199646324953E-18</v>
+        <v>1.7458027953614621E-18</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>-2.1051128887622564E-19</v>
+        <v>-6.7297188733969649E-20</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -6309,32 +6309,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>878.43921780586243</v>
+        <v>994.15543675422668</v>
       </c>
       <c r="AC33" s="8">
-        <v>-1.8922068534266145E-6</v>
+        <v>-2.9116438327037031E-6</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922525644302</v>
+        <v>994.15544420480728</v>
       </c>
       <c r="AE33" s="8">
-        <v>1.9608941670412605E-6</v>
+        <v>2.5605584141885629E-7</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922153115273</v>
+        <v>994.15544047951698</v>
       </c>
       <c r="AG33" s="8">
-        <v>3.4343713650741847E-8</v>
+        <v>-1.3277940524858423E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>-6.49854103420549E-14</v>
+        <v>3.8660633640210596E-12</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>6.7344387772275003E-14</v>
+        <v>-3.3998942334021537E-13</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -6342,17 +6342,17 @@
       </c>
     </row>
     <row r="34" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="F34" s="41" t="s">
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="F34" s="31" t="s">
         <v>100</v>
       </c>
       <c r="G34" s="20">
         <f xml:space="preserve"> $C$32 * (8 * ($C$15/1000))</f>
-        <v>5.6220110173686413</v>
+        <v>6.3625948390574196</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>13</v>
@@ -6362,35 +6362,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.10175908077508211</v>
+        <v>0.10759570728987455</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>6.6381800056802831E-10</v>
+        <v>9.161074121522006E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.10175908170640469</v>
+        <v>0.10759570822119713</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-3.1712199533018293E-10</v>
+        <v>-7.3459932581343423E-11</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="2"/>
-        <v>0.1017590812407434</v>
+        <v>0.10759570775553584</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="3"/>
-        <v>1.7334800261892269E-10</v>
+        <v>4.2132375366321639E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>1.150715245009546E-19</v>
+        <v>3.8597781364666042E-19</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>-5.497246447701454E-20</v>
+        <v>-3.0950414539018421E-20</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -6401,32 +6401,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>878.43921780586243</v>
+        <v>994.15544047951698</v>
       </c>
       <c r="AC34" s="8">
-        <v>-1.8922068534266145E-6</v>
+        <v>-1.3277940524858423E-6</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922153115273</v>
+        <v>994.15544420480728</v>
       </c>
       <c r="AE34" s="8">
-        <v>3.4343713650741847E-8</v>
+        <v>2.5605584141885629E-7</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>878.43921966850758</v>
+        <v>994.15544234216213</v>
       </c>
       <c r="AG34" s="8">
-        <v>-9.2893168357477407E-7</v>
+        <v>-5.358689350032364E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>1.7577308980253108E-12</v>
+        <v>7.1152358480921967E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>-3.1902963741793574E-14</v>
+        <v>-1.3721237104248011E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -6437,15 +6437,15 @@
       <c r="B35" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="43">
+      <c r="C35" s="33">
         <v>30</v>
       </c>
-      <c r="F35" s="41" t="s">
+      <c r="F35" s="31" t="s">
         <v>101</v>
       </c>
       <c r="G35" s="20">
         <f xml:space="preserve"> $C$32 * (13 * ($C$15*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>11.139298074750839</v>
+        <v>13.083476985245737</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>13</v>
@@ -6455,32 +6455,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>878.43921966850758</v>
+        <v>994.15544234216213</v>
       </c>
       <c r="AC35" s="20">
-        <v>-9.2893168357477407E-7</v>
+        <v>-5.358689350032364E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922153115273</v>
+        <v>994.15544420480728</v>
       </c>
       <c r="AE35" s="20">
-        <v>3.4343713650741847E-8</v>
+        <v>2.5605584141885629E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922059983015</v>
+        <v>994.15544327348471</v>
       </c>
       <c r="AG35" s="20">
-        <v>-4.4729398496201611E-7</v>
+        <v>-1.3990643310535233E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>4.155055545036353E-13</v>
+        <v>7.4971511308266692E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>-1.5361736537234711E-14</v>
+        <v>-3.5823859448701923E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -6488,14 +6488,14 @@
       </c>
     </row>
     <row r="36" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F36" s="36" t="s">
+      <c r="F36" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="26">
         <f>$C$15 - $C$21 - SUM(G24:G35)</f>
-        <v>-4.6225068217609078E-10</v>
-      </c>
-      <c r="H36" s="36" t="s">
+        <v>7.2191141953226179E-11</v>
+      </c>
+      <c r="H36" s="26" t="s">
         <v>13</v>
       </c>
       <c r="AA36" s="8">
@@ -6503,32 +6503,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922059983015</v>
+        <v>994.15544327348471</v>
       </c>
       <c r="AC36" s="20">
-        <v>-4.4729398496201611E-7</v>
+        <v>-1.3990643310535233E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922153115273</v>
+        <v>994.15544420480728</v>
       </c>
       <c r="AE36" s="20">
-        <v>3.4343713650741847E-8</v>
+        <v>2.5605584141885629E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922106549144</v>
+        <v>994.15544373914599</v>
       </c>
       <c r="AG36" s="20">
-        <v>-2.0647513565563713E-7</v>
+        <v>5.8074533626495395E-8</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>9.2355086222982792E-14</v>
+        <v>-8.1250008539398127E-15</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>-7.0911229349552797E-15</v>
+        <v>1.4870323572739942E-14</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -6548,32 +6548,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922106549144</v>
+        <v>994.15544327348471</v>
       </c>
       <c r="AC37" s="20">
-        <v>-2.0647513565563713E-7</v>
+        <v>-1.3990643310535233E-7</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922153115273</v>
+        <v>994.15544373914599</v>
       </c>
       <c r="AE37" s="20">
-        <v>3.4343713650741847E-8</v>
+        <v>5.8074533626495395E-8</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922129832208</v>
+        <v>994.15544350631535</v>
       </c>
       <c r="AG37" s="20">
-        <v>-8.6065767845866503E-8</v>
+        <v>-4.0916120269685052E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>1.7770441091281859E-14</v>
+        <v>5.7244284434412425E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>-2.9558180860296642E-15</v>
+        <v>-2.3761846024675544E-15</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -6586,32 +6586,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922129832208</v>
+        <v>994.15544350631535</v>
       </c>
       <c r="AC38" s="20">
-        <v>-8.6065767845866503E-8</v>
+        <v>-4.0916120269685052E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922153115273</v>
+        <v>994.15544373914599</v>
       </c>
       <c r="AE38" s="20">
-        <v>3.4343713650741847E-8</v>
+        <v>5.8074533626495395E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>878.4392214147374</v>
+        <v>994.15544362273067</v>
       </c>
       <c r="AG38" s="20">
-        <v>-2.5861027097562328E-8</v>
+        <v>8.5792635218240321E-9</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>2.2257491544344621E-15</v>
+        <v>-3.5103017808427385E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-8.8816370935275614E-16</v>
+        <v>4.9823672788873506E-16</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -6624,32 +6624,32 @@
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>878.4392214147374</v>
+        <v>994.15544350631535</v>
       </c>
       <c r="AC39" s="20">
-        <v>-2.5861027097562328E-8</v>
+        <v>-4.0916120269685052E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922153115273</v>
+        <v>994.15544362273067</v>
       </c>
       <c r="AE39" s="20">
-        <v>3.4343713650741847E-8</v>
+        <v>8.5792635218240321E-9</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922147294506</v>
+        <v>994.15544356452301</v>
       </c>
       <c r="AG39" s="20">
-        <v>4.24137169829919E-9</v>
+        <v>-1.6168314687092789E-8</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>-1.096862284205493E-16</v>
+        <v>6.6154470829520378E-16</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>1.4566445509274802E-16</v>
+        <v>-1.387122324043469E-16</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -6657,42 +6657,42 @@
       </c>
     </row>
     <row r="40" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="AA40" s="8">
         <v>36</v>
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>878.4392214147374</v>
+        <v>994.15544356452301</v>
       </c>
       <c r="AC40" s="20">
-        <v>-2.5861027097562328E-8</v>
+        <v>-1.6168314687092789E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922147294506</v>
+        <v>994.15544362273067</v>
       </c>
       <c r="AE40" s="20">
-        <v>4.24137169829919E-9</v>
+        <v>8.5792635218240321E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922144384123</v>
+        <v>994.15544359362684</v>
       </c>
       <c r="AG40" s="20">
-        <v>-1.080991296475986E-8</v>
+        <v>-3.7945255826343782E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>2.7955545210394507E-16</v>
+        <v>6.1351083708256738E-17</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>-4.5848858909809961E-17</v>
+        <v>-3.2554234913723203E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -6705,7 +6705,7 @@
       </c>
       <c r="G41" s="20">
         <f>ROUND($C$21/$C$15 * 100, 2)</f>
-        <v>45.54</v>
+        <v>40.24</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>92</v>
@@ -6715,32 +6715,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922144384123</v>
+        <v>994.15544359362684</v>
       </c>
       <c r="AC41" s="20">
-        <v>-1.080991296475986E-8</v>
+        <v>-3.7945255826343782E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922147294506</v>
+        <v>994.15544362273067</v>
       </c>
       <c r="AE41" s="20">
-        <v>4.24137169829919E-9</v>
+        <v>8.5792635218240321E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922145839315</v>
+        <v>994.15544360817876</v>
       </c>
       <c r="AG41" s="20">
-        <v>-3.2843558983586263E-9</v>
+        <v>2.3924258130136877E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>3.5503601406552432E-17</v>
+        <v>-9.0781209520352894E-18</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3930174154440289E-17</v>
+        <v>2.0525251506258534E-17</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -6748,12 +6748,12 @@
       </c>
     </row>
     <row r="42" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F42" s="37" t="s">
+      <c r="F42" s="27" t="s">
         <v>84</v>
       </c>
       <c r="G42" s="20">
         <f>ROUND(G24/$C$15 * 100, 2)</f>
-        <v>24.41</v>
+        <v>30.62</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>92</v>
@@ -6763,32 +6763,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922145839315</v>
+        <v>994.15544359362684</v>
       </c>
       <c r="AC42" s="20">
-        <v>-3.2843558983586263E-9</v>
+        <v>-3.7945255826343782E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922147294506</v>
+        <v>994.15544360817876</v>
       </c>
       <c r="AE42" s="20">
-        <v>4.24137169829919E-9</v>
+        <v>2.3924258130136877E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922146566911</v>
+        <v>994.1554436009028</v>
       </c>
       <c r="AG42" s="20">
-        <v>4.7856474338914268E-10</v>
+        <v>-7.0110672822920606E-10</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>-1.5717769376966132E-18</v>
+        <v>2.6603674164228108E-18</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>2.0297709584145242E-18</v>
+        <v>-1.6773458342931249E-18</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -6796,12 +6796,12 @@
       </c>
     </row>
     <row r="43" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F43" s="45" t="s">
+      <c r="F43" s="35" t="s">
         <v>104</v>
       </c>
       <c r="G43" s="20">
         <f>ROUND(SUM(G25:G27)/$C$15 * 100, 2)</f>
-        <v>10.63</v>
+        <v>11.07</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>92</v>
@@ -6811,32 +6811,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922145839315</v>
+        <v>994.1554436009028</v>
       </c>
       <c r="AC43" s="20">
-        <v>-3.2843558983586263E-9</v>
+        <v>-7.0110672822920606E-10</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922146566911</v>
+        <v>994.15544360817876</v>
       </c>
       <c r="AE43" s="20">
-        <v>4.7856474338914268E-10</v>
+        <v>2.3924258130136877E-9</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>878.43922146203113</v>
+        <v>994.15544360454078</v>
       </c>
       <c r="AG43" s="20">
-        <v>-1.402838734065881E-9</v>
+        <v>8.4571638581110165E-10</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>4.6074216706752246E-18</v>
+        <v>-5.9293744826585042E-19</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>-6.7134915878458811E-19</v>
+        <v>2.0233137119031225E-18</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -6844,12 +6844,12 @@
       </c>
     </row>
     <row r="44" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F44" s="46" t="s">
+      <c r="F44" s="36" t="s">
         <v>105</v>
       </c>
       <c r="G44" s="20">
         <f>ROUND(SUM(G28:G31)/$C$15 * 100, 2)</f>
-        <v>14.75</v>
+        <v>13.39</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>92</v>
@@ -6859,32 +6859,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>878.43922146203113</v>
+        <v>994.1554436009028</v>
       </c>
       <c r="AC44" s="20">
-        <v>-1.402838734065881E-9</v>
+        <v>-7.0110672822920606E-10</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>878.43922146566911</v>
+        <v>994.15544360454078</v>
       </c>
       <c r="AE44" s="20">
-        <v>4.7856474338914268E-10</v>
+        <v>8.4571638581110165E-10</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>878.43922146385012</v>
+        <v>994.15544360272179</v>
       </c>
       <c r="AG44" s="20">
-        <v>-4.6225068217609078E-10</v>
+        <v>7.2191141953226179E-11</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>6.4846316180499709E-19</v>
+        <v>-5.0613695341956582E-20</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-2.2121687909705703E-19</v>
+        <v>6.1053231660258637E-20</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -6892,7 +6892,7 @@
       </c>
     </row>
     <row r="45" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F45" s="41" t="s">
+      <c r="F45" s="31" t="s">
         <v>106</v>
       </c>
       <c r="G45" s="20">
@@ -6904,14 +6904,14 @@
       </c>
     </row>
     <row r="46" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="F46" s="36" t="s">
+      <c r="F46" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="G46" s="36">
+      <c r="G46" s="26">
         <f>SUM(G41:G45)</f>
-        <v>100</v>
-      </c>
-      <c r="H46" s="36" t="s">
+        <v>99.990000000000009</v>
+      </c>
+      <c r="H46" s="26" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6926,22 +6926,22 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B29:D29"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="F40:H40"/>
     <mergeCell ref="F18:H18"/>
     <mergeCell ref="F13:H13"/>
     <mergeCell ref="J11:L11"/>
     <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="F8:H8"/>
   </mergeCells>
   <conditionalFormatting sqref="G37">
     <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="FALSE">
@@ -6972,8 +6972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C46306-B19A-E840-A2A2-9C88BDE95F01}">
   <dimension ref="B1:AJ57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7004,11 +7004,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="2:36" x14ac:dyDescent="0.2">
       <c r="P2" s="6" t="s">
@@ -7019,21 +7019,21 @@
       </c>
     </row>
     <row r="3" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="F3" s="29" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="F3" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="J3" s="28" t="s">
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="J3" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
       <c r="P3" s="7" t="s">
         <v>73</v>
       </c>
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G4">
         <f xml:space="preserve"> ($C$17*$C$35)/$C$9 * ( ($C$28/2) + SQRT( ($C$28/2)^2 + ($C$17*$C$35)/(2*$C$34*$C$5*PI()*$C$18*$C$18 ) ) )</f>
-        <v>191571.29914314178</v>
+        <v>228523.9020427049</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -7117,7 +7117,7 @@
       </c>
       <c r="K4">
         <f xml:space="preserve"> $C$17 * $C$35</f>
-        <v>9271.8759299181875</v>
+        <v>10465.351476876367</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
@@ -7130,14 +7130,14 @@
       </c>
       <c r="R4" s="8">
         <f t="shared" ref="R4:R34" si="0" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + Q4^2)) - Q4</f>
-        <v>0.8199564379221449</v>
+        <v>0.94435754537042871</v>
       </c>
       <c r="S4" s="9">
         <v>1</v>
       </c>
       <c r="T4" s="8">
         <f t="shared" ref="T4:T34" si="1" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + S4^2)) - S4</f>
-        <v>-0.66895619408198381</v>
+        <v>-0.66550631939962357</v>
       </c>
       <c r="U4" s="8">
         <f xml:space="preserve"> (Q4 + S4)/2</f>
@@ -7145,15 +7145,15 @@
       </c>
       <c r="V4" s="8">
         <f t="shared" ref="V4:V34" si="2" xml:space="preserve"> $K$20 * TAN($K$17) + $K$21 / (2 * SQRT($K$20^2 + U4^2)) - U4</f>
-        <v>-0.1550431274621959</v>
+        <v>-0.14815132379485579</v>
       </c>
       <c r="W4" s="8">
         <f>R4*V4</f>
-        <v>-0.12712861051821123</v>
+        <v>-0.13990782048228961</v>
       </c>
       <c r="X4" s="8">
         <f>T4*V4</f>
-        <v>0.10371706046567847</v>
+        <v>9.8595642212896351E-2</v>
       </c>
       <c r="Y4" s="8">
         <f>S4-Q4</f>
@@ -7165,17 +7165,17 @@
       <c r="AB4" s="8"/>
       <c r="AC4" s="8">
         <f>G37</f>
-        <v>-3.0513547244481742E-10</v>
+        <v>-7.0440364652313292E-10</v>
       </c>
       <c r="AD4" s="8"/>
       <c r="AE4" s="8">
         <f>G37</f>
-        <v>-3.0513547244481742E-10</v>
+        <v>-7.0440364652313292E-10</v>
       </c>
       <c r="AF4" s="8"/>
       <c r="AG4" s="8">
         <f>G37</f>
-        <v>-3.0513547244481742E-10</v>
+        <v>-7.0440364652313292E-10</v>
       </c>
       <c r="AH4" s="8"/>
       <c r="AI4" s="8"/>
@@ -7193,7 +7193,7 @@
       </c>
       <c r="G5">
         <f xml:space="preserve"> $C$17 * $C$35 / $C$5</f>
-        <v>1545.3126549863646</v>
+        <v>1744.2252461460612</v>
       </c>
       <c r="H5" t="s">
         <v>34</v>
@@ -7217,7 +7217,7 @@
       </c>
       <c r="R5" s="8">
         <f t="shared" si="0"/>
-        <v>0.8199564379221449</v>
+        <v>0.94435754537042871</v>
       </c>
       <c r="S5" s="8">
         <f>IF(X4&gt;0, U4, S4)</f>
@@ -7225,7 +7225,7 @@
       </c>
       <c r="T5" s="8">
         <f t="shared" si="1"/>
-        <v>-0.1550431274621959</v>
+        <v>-0.14815132379485579</v>
       </c>
       <c r="U5" s="8">
         <f t="shared" ref="U5:U34" si="3" xml:space="preserve"> (Q5 + S5)/2</f>
@@ -7233,15 +7233,15 @@
       </c>
       <c r="V5" s="8">
         <f t="shared" si="2"/>
-        <v>0.12256037894948657</v>
+        <v>0.13628096532892248</v>
       </c>
       <c r="W5" s="8">
         <f t="shared" ref="W5:W34" si="4">R5*V5</f>
-        <v>0.10049417175380924</v>
+        <v>0.12869795789873373</v>
       </c>
       <c r="X5" s="8">
         <f t="shared" ref="X5:X34" si="5">T5*V5</f>
-        <v>-1.9002144455280277E-2</v>
+        <v>-2.019020542152071E-2</v>
       </c>
       <c r="Y5" s="8">
         <f t="shared" ref="Y5:Y34" si="6">S5-Q5</f>
@@ -7254,15 +7254,15 @@
         <v>500</v>
       </c>
       <c r="AC5" s="8">
-        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C17"/>
-        <v>-236.22033912666501</v>
+        <f t="dataTable" ref="AC5:AC44" dt2D="0" dtr="0" r1="C17" ca="1"/>
+        <v>-254.70568443322958</v>
       </c>
       <c r="AD5" s="9">
         <v>2500</v>
       </c>
       <c r="AE5" s="8">
-        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>340.95193760952043</v>
+        <f t="dataTable" ref="AE5:AE44" dt2D="0" dtr="0" r1="C17"/>
+        <v>139.75883999846519</v>
       </c>
       <c r="AF5" s="8">
         <f>(AB5+AD5)/2</f>
@@ -7270,15 +7270,15 @@
       </c>
       <c r="AG5" s="8">
         <f t="dataTable" ref="AG5:AG44" dt2D="0" dtr="0" r1="C17" ca="1"/>
-        <v>223.78677214758216</v>
+        <v>129.69534572508007</v>
       </c>
       <c r="AH5" s="8">
         <f>AC5*AG5</f>
-        <v>-52862.987208763567</v>
+        <v>-33034.141800710859</v>
       </c>
       <c r="AI5" s="8">
         <f>AE5*AG5</f>
-        <v>76300.533575098394</v>
+        <v>18126.071071737093</v>
       </c>
       <c r="AJ5" s="8">
         <f>AD5-AB5</f>
@@ -7297,7 +7297,7 @@
       </c>
       <c r="G6">
         <f xml:space="preserve"> $C$29/$C$28</f>
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
         <v>25</v>
@@ -7307,7 +7307,7 @@
       </c>
       <c r="K6">
         <f xml:space="preserve"> 1.6 * ($C$17*2.20462/1000)^(2/3) * 0.3048^2</f>
-        <v>0.24249612664750883</v>
+        <v>0.26288286392564242</v>
       </c>
       <c r="L6" t="s">
         <v>20</v>
@@ -7321,7 +7321,7 @@
       </c>
       <c r="R6" s="8">
         <f t="shared" si="0"/>
-        <v>0.12256037894948657</v>
+        <v>0.13628096532892248</v>
       </c>
       <c r="S6" s="8">
         <f t="shared" ref="S6:S34" si="8">IF(X5&gt;0, U5, S5)</f>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="T6" s="8">
         <f t="shared" si="1"/>
-        <v>-0.1550431274621959</v>
+        <v>-0.14815132379485579</v>
       </c>
       <c r="U6" s="8">
         <f t="shared" si="3"/>
@@ -7337,15 +7337,15 @@
       </c>
       <c r="V6" s="8">
         <f t="shared" si="2"/>
-        <v>-2.0801298238252441E-2</v>
+        <v>-1.1623174757357857E-2</v>
       </c>
       <c r="W6" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5494149947215064E-3</v>
+        <v>-1.5840174761194931E-3</v>
       </c>
       <c r="X6" s="8">
         <f t="shared" si="5"/>
-        <v>3.2250983341325242E-3</v>
+        <v>1.7219887270015183E-3</v>
       </c>
       <c r="Y6" s="8">
         <f t="shared" si="6"/>
@@ -7359,29 +7359,29 @@
         <v>500</v>
       </c>
       <c r="AC6" s="8">
-        <v>-236.22033912666501</v>
+        <v>-254.70568443322958</v>
       </c>
       <c r="AD6" s="8">
         <f>IF(AI5&gt;0,AF5,AD5)</f>
         <v>1500</v>
       </c>
       <c r="AE6" s="8">
-        <v>223.78677214758216</v>
+        <v>129.69534572508007</v>
       </c>
       <c r="AF6" s="8">
         <f t="shared" ref="AF6:AF44" si="9">(AB6+AD6)/2</f>
         <v>1000</v>
       </c>
       <c r="AG6" s="8">
-        <v>26.057052713320445</v>
+        <v>-25.482261366925513</v>
       </c>
       <c r="AH6" s="8">
         <f t="shared" ref="AH6:AH44" si="10">AC6*AG6</f>
-        <v>-6155.2058285819421</v>
+        <v>6490.4768223692072</v>
       </c>
       <c r="AI6" s="8">
         <f t="shared" ref="AI6:AI44" si="11">AE6*AG6</f>
-        <v>5831.2237183933794</v>
+        <v>-3304.930697840256</v>
       </c>
       <c r="AJ6" s="8">
         <f t="shared" ref="AJ6:AJ44" si="12">AD6-AB6</f>
@@ -7400,7 +7400,7 @@
       </c>
       <c r="K7">
         <f xml:space="preserve"> K6 / $C$21</f>
-        <v>3.0312015830938604E-2</v>
+        <v>3.2860357990705302E-2</v>
       </c>
       <c r="P7" s="8">
         <v>3</v>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="R7" s="8">
         <f t="shared" si="0"/>
-        <v>0.12256037894948657</v>
+        <v>0.13628096532892248</v>
       </c>
       <c r="S7" s="8">
         <f t="shared" si="8"/>
@@ -7419,7 +7419,7 @@
       </c>
       <c r="T7" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0801298238252441E-2</v>
+        <v>-1.1623174757357857E-2</v>
       </c>
       <c r="U7" s="8">
         <f t="shared" si="3"/>
@@ -7427,15 +7427,15 @@
       </c>
       <c r="V7" s="8">
         <f t="shared" si="2"/>
-        <v>4.9065499887153419E-2</v>
+        <v>6.0066082548849042E-2</v>
       </c>
       <c r="W7" s="8">
         <f t="shared" si="4"/>
-        <v>6.0134862595155134E-3</v>
+        <v>8.1858637132838918E-3</v>
       </c>
       <c r="X7" s="8">
         <f t="shared" si="5"/>
-        <v>-1.0206260963616198E-3</v>
+        <v>-6.9815857445515547E-4</v>
       </c>
       <c r="Y7" s="8">
         <f t="shared" si="6"/>
@@ -7446,32 +7446,32 @@
       </c>
       <c r="AB7" s="8">
         <f t="shared" ref="AB7:AB44" si="13">IF(AH6&gt;0,AF6,AB6)</f>
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="AC7" s="8">
-        <v>-236.22033912666501</v>
+        <v>-25.482261366925513</v>
       </c>
       <c r="AD7" s="8">
         <f t="shared" ref="AD7:AD44" si="14">IF(AI6&gt;0,AF6,AD6)</f>
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="AE7" s="8">
-        <v>26.057052713320445</v>
+        <v>129.69534572508007</v>
       </c>
       <c r="AF7" s="8">
         <f t="shared" si="9"/>
-        <v>750</v>
+        <v>1250</v>
       </c>
       <c r="AG7" s="8">
-        <v>-98.584371769912252</v>
+        <v>62.659016344708675</v>
       </c>
       <c r="AH7" s="8">
         <f t="shared" si="10"/>
-        <v>23287.633732077891</v>
+        <v>-1596.6934314903242</v>
       </c>
       <c r="AI7" s="8">
         <f t="shared" si="11"/>
-        <v>-2568.8181719181835</v>
+        <v>8126.5827876204348</v>
       </c>
       <c r="AJ7" s="8">
         <f t="shared" si="12"/>
@@ -7485,17 +7485,17 @@
       <c r="C8" s="1">
         <v>0.13</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
       <c r="J8" t="s">
         <v>66</v>
       </c>
       <c r="K8">
         <f xml:space="preserve"> K5 * $C$21 * K7</f>
-        <v>133.67598981443925</v>
+        <v>144.9141787390104</v>
       </c>
       <c r="L8" t="s">
         <v>34</v>
@@ -7509,7 +7509,7 @@
       </c>
       <c r="R8" s="8">
         <f t="shared" si="0"/>
-        <v>4.9065499887153419E-2</v>
+        <v>6.0066082548849042E-2</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" si="8"/>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="T8" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0801298238252441E-2</v>
+        <v>-1.1623174757357857E-2</v>
       </c>
       <c r="U8" s="8">
         <f t="shared" si="3"/>
@@ -7525,15 +7525,15 @@
       </c>
       <c r="V8" s="8">
         <f t="shared" si="2"/>
-        <v>1.380051461390297E-2</v>
+        <v>2.3807837158047407E-2</v>
       </c>
       <c r="W8" s="8">
         <f t="shared" si="4"/>
-        <v>6.7712914823111526E-4</v>
+        <v>1.4300435120448312E-3</v>
       </c>
       <c r="X8" s="8">
         <f t="shared" si="5"/>
-        <v>-2.8706862032515693E-4</v>
+        <v>-2.7672265188270306E-4</v>
       </c>
       <c r="Y8" s="8">
         <f t="shared" si="6"/>
@@ -7544,32 +7544,32 @@
       </c>
       <c r="AB8" s="8">
         <f t="shared" si="13"/>
-        <v>750</v>
+        <v>1000</v>
       </c>
       <c r="AC8" s="8">
-        <v>-98.584371769912252</v>
+        <v>-25.482261366925513</v>
       </c>
       <c r="AD8" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AE8" s="8">
-        <v>26.057052713320445</v>
+        <v>62.659016344708675</v>
       </c>
       <c r="AF8" s="8">
         <f t="shared" si="9"/>
-        <v>875</v>
+        <v>1125</v>
       </c>
       <c r="AG8" s="8">
-        <v>-34.41493147532185</v>
+        <v>21.075626681058111</v>
       </c>
       <c r="AH8" s="8">
         <f t="shared" si="10"/>
-        <v>3392.7743989991841</v>
+        <v>-537.05462755847168</v>
       </c>
       <c r="AI8" s="8">
         <f t="shared" si="11"/>
-        <v>-896.75168357777238</v>
+        <v>1320.5780366833985</v>
       </c>
       <c r="AJ8" s="8">
         <f t="shared" si="12"/>
@@ -7588,7 +7588,7 @@
       </c>
       <c r="G9">
         <f xml:space="preserve"> K23 + K18 * (K28 * K25 + $C$20 * SIN(K17))</f>
-        <v>33610.06670946096</v>
+        <v>43075.597942931177</v>
       </c>
       <c r="H9" t="s">
         <v>32</v>
@@ -7609,7 +7609,7 @@
       </c>
       <c r="R9" s="8">
         <f t="shared" si="0"/>
-        <v>1.380051461390297E-2</v>
+        <v>2.3807837158047407E-2</v>
       </c>
       <c r="S9" s="8">
         <f t="shared" si="8"/>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="T9" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0801298238252441E-2</v>
+        <v>-1.1623174757357857E-2</v>
       </c>
       <c r="U9" s="8">
         <f t="shared" si="3"/>
@@ -7625,15 +7625,15 @@
       </c>
       <c r="V9" s="8">
         <f t="shared" si="2"/>
-        <v>-3.5726090148904821E-3</v>
+        <v>6.0022483113619796E-3</v>
       </c>
       <c r="W9" s="8">
         <f t="shared" si="4"/>
-        <v>-4.9303842919757592E-5</v>
+        <v>1.4290055037907104E-4</v>
       </c>
       <c r="X9" s="8">
         <f t="shared" si="5"/>
-        <v>7.431490560740617E-5</v>
+        <v>-6.9765181060016379E-5</v>
       </c>
       <c r="Y9" s="8">
         <f t="shared" si="6"/>
@@ -7644,32 +7644,32 @@
       </c>
       <c r="AB9" s="8">
         <f t="shared" si="13"/>
-        <v>875</v>
+        <v>1000</v>
       </c>
       <c r="AC9" s="8">
-        <v>-34.41493147532185</v>
+        <v>-25.482261366925513</v>
       </c>
       <c r="AD9" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="AE9" s="8">
-        <v>26.057052713320445</v>
+        <v>21.075626681058111</v>
       </c>
       <c r="AF9" s="8">
         <f t="shared" si="9"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AG9" s="8">
-        <v>-3.6922974510615632</v>
+        <v>-1.6008324167196406</v>
       </c>
       <c r="AH9" s="8">
         <f t="shared" si="10"/>
-        <v>127.07016376478923</v>
+        <v>40.792830047496899</v>
       </c>
       <c r="AI9" s="8">
         <f t="shared" si="11"/>
-        <v>-96.21038931556987</v>
+        <v>-33.738546393719197</v>
       </c>
       <c r="AJ9" s="8">
         <f t="shared" si="12"/>
@@ -7682,7 +7682,7 @@
       </c>
       <c r="G10">
         <f xml:space="preserve"> $C$6 * G9</f>
-        <v>33610.06670946096</v>
+        <v>43075.597942931177</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
@@ -7692,42 +7692,42 @@
       </c>
       <c r="K10">
         <f xml:space="preserve"> K4 / (K5 * $C$21)</f>
-        <v>2.1024661972603598</v>
+        <v>2.3730955729878382</v>
       </c>
       <c r="P10" s="8">
         <v>6</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="7"/>
-        <v>0.34375</v>
+        <v>0.359375</v>
       </c>
       <c r="R10" s="8">
         <f t="shared" si="0"/>
-        <v>1.380051461390297E-2</v>
+        <v>6.0022483113619796E-3</v>
       </c>
       <c r="S10" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.375</v>
       </c>
       <c r="T10" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5726090148904821E-3</v>
+        <v>-1.1623174757357857E-2</v>
       </c>
       <c r="U10" s="8">
         <f t="shared" si="3"/>
-        <v>0.3515625</v>
+        <v>0.3671875</v>
       </c>
       <c r="V10" s="8">
         <f t="shared" si="2"/>
-        <v>5.0947095692041033E-3</v>
+        <v>-2.8315630771734712E-3</v>
       </c>
       <c r="W10" s="8">
         <f t="shared" si="4"/>
-        <v>7.0309613863392539E-5</v>
+        <v>-1.6995744698479399E-5</v>
       </c>
       <c r="X10" s="8">
         <f t="shared" si="5"/>
-        <v>-1.8201405335187385E-5</v>
+        <v>3.2911752482469229E-5</v>
       </c>
       <c r="Y10" s="8">
         <f t="shared" si="6"/>
@@ -7738,32 +7738,32 @@
       </c>
       <c r="AB10" s="8">
         <f t="shared" si="13"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC10" s="8">
-        <v>-3.6922974510615632</v>
+        <v>-1.6008324167196406</v>
       </c>
       <c r="AD10" s="8">
         <f t="shared" si="14"/>
-        <v>1000</v>
+        <v>1125</v>
       </c>
       <c r="AE10" s="8">
-        <v>26.057052713320445</v>
+        <v>21.075626681058111</v>
       </c>
       <c r="AF10" s="8">
         <f t="shared" si="9"/>
-        <v>968.75</v>
+        <v>1093.75</v>
       </c>
       <c r="AG10" s="8">
-        <v>11.306954071230621</v>
+        <v>9.8904643707475088</v>
       </c>
       <c r="AH10" s="8">
         <f t="shared" si="10"/>
-        <v>-41.748637696474987</v>
+        <v>-15.832975981103234</v>
       </c>
       <c r="AI10" s="8">
         <f t="shared" si="11"/>
-        <v>294.62589826114947</v>
+        <v>208.44773478018081</v>
       </c>
       <c r="AJ10" s="8">
         <f t="shared" si="12"/>
@@ -7771,11 +7771,11 @@
       </c>
     </row>
     <row r="11" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
       <c r="F11" s="4" t="s">
         <v>131</v>
       </c>
@@ -7791,42 +7791,42 @@
       </c>
       <c r="K11">
         <f xml:space="preserve"> K7 + K10^2 / ( PI() * K9 * $C$22 )</f>
-        <v>0.21627731219537227</v>
+        <v>0.26978177458183372</v>
       </c>
       <c r="P11" s="8">
         <v>7</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="7"/>
-        <v>0.3515625</v>
+        <v>0.359375</v>
       </c>
       <c r="R11" s="8">
         <f t="shared" si="0"/>
-        <v>5.0947095692041033E-3</v>
+        <v>6.0022483113619796E-3</v>
       </c>
       <c r="S11" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.3671875</v>
       </c>
       <c r="T11" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5726090148904821E-3</v>
+        <v>-2.8315630771734712E-3</v>
       </c>
       <c r="U11" s="8">
         <f t="shared" si="3"/>
-        <v>0.35546875</v>
+        <v>0.36328125</v>
       </c>
       <c r="V11" s="8">
         <f t="shared" si="2"/>
-        <v>7.5639612779582199E-4</v>
+        <v>1.5798994541391109E-3</v>
       </c>
       <c r="W11" s="8">
         <f t="shared" si="4"/>
-        <v>3.853618590390304E-6</v>
+        <v>9.4829488307281914E-6</v>
       </c>
       <c r="X11" s="8">
         <f t="shared" si="5"/>
-        <v>-2.7023076249916067E-6</v>
+        <v>-4.4735849599868281E-6</v>
       </c>
       <c r="Y11" s="8">
         <f t="shared" si="6"/>
@@ -7837,32 +7837,32 @@
       </c>
       <c r="AB11" s="8">
         <f t="shared" si="13"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC11" s="8">
-        <v>-3.6922974510615632</v>
+        <v>-1.6008324167196406</v>
       </c>
       <c r="AD11" s="8">
         <f t="shared" si="14"/>
-        <v>968.75</v>
+        <v>1093.75</v>
       </c>
       <c r="AE11" s="8">
-        <v>11.306954071230621</v>
+        <v>9.8904643707475088</v>
       </c>
       <c r="AF11" s="8">
         <f t="shared" si="9"/>
-        <v>953.125</v>
+        <v>1078.125</v>
       </c>
       <c r="AG11" s="8">
-        <v>3.8381133923402331</v>
+        <v>4.182779295589512</v>
       </c>
       <c r="AH11" s="8">
         <f t="shared" si="10"/>
-        <v>-14.171456295423091</v>
+        <v>-6.6959286883634341</v>
       </c>
       <c r="AI11" s="8">
         <f t="shared" si="11"/>
-        <v>43.397371847366166</v>
+        <v>41.369629593728433</v>
       </c>
       <c r="AJ11" s="8">
         <f t="shared" si="12"/>
@@ -7884,7 +7884,7 @@
       </c>
       <c r="K12">
         <f xml:space="preserve"> K5 * K11 * $C$21</f>
-        <v>953.7829467815917</v>
+        <v>1189.7376259058867</v>
       </c>
       <c r="L12" t="s">
         <v>34</v>
@@ -7894,35 +7894,35 @@
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="7"/>
-        <v>0.35546875</v>
+        <v>0.36328125</v>
       </c>
       <c r="R12" s="8">
         <f t="shared" si="0"/>
-        <v>7.5639612779582199E-4</v>
+        <v>1.5798994541391109E-3</v>
       </c>
       <c r="S12" s="8">
         <f t="shared" si="8"/>
-        <v>0.359375</v>
+        <v>0.3671875</v>
       </c>
       <c r="T12" s="8">
         <f t="shared" si="1"/>
-        <v>-3.5726090148904821E-3</v>
+        <v>-2.8315630771734712E-3</v>
       </c>
       <c r="U12" s="8">
         <f t="shared" si="3"/>
-        <v>0.357421875</v>
+        <v>0.365234375</v>
       </c>
       <c r="V12" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4092511362653326E-3</v>
+        <v>-6.2717102324721941E-4</v>
       </c>
       <c r="W12" s="8">
         <f t="shared" si="4"/>
-        <v>-1.0659521025629598E-6</v>
+        <v>-9.9086715728014968E-7</v>
       </c>
       <c r="X12" s="8">
         <f t="shared" si="5"/>
-        <v>5.0347033136661828E-6</v>
+        <v>1.7758743124999311E-6</v>
       </c>
       <c r="Y12" s="8">
         <f t="shared" si="6"/>
@@ -7933,32 +7933,32 @@
       </c>
       <c r="AB12" s="8">
         <f t="shared" si="13"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC12" s="8">
-        <v>-3.6922974510615632</v>
+        <v>-1.6008324167196406</v>
       </c>
       <c r="AD12" s="8">
         <f t="shared" si="14"/>
-        <v>953.125</v>
+        <v>1078.125</v>
       </c>
       <c r="AE12" s="8">
-        <v>3.8381133923402331</v>
+        <v>4.182779295589512</v>
       </c>
       <c r="AF12" s="8">
         <f t="shared" si="9"/>
-        <v>945.3125</v>
+        <v>1070.3125</v>
       </c>
       <c r="AG12" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>1.3004261834397539</v>
       </c>
       <c r="AH12" s="8">
         <f t="shared" si="10"/>
-        <v>-0.29744688260261792</v>
+        <v>-2.0817643900013598</v>
       </c>
       <c r="AI12" s="8">
         <f t="shared" si="11"/>
-        <v>0.30919363316699539</v>
+        <v>5.4393957155342916</v>
       </c>
       <c r="AJ12" s="8">
         <f t="shared" si="12"/>
@@ -7982,42 +7982,42 @@
       </c>
       <c r="K13">
         <f>K10/K11</f>
-        <v>9.7211592650139593</v>
+        <v>8.7963524469589398</v>
       </c>
       <c r="P13" s="8">
         <v>9</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="7"/>
-        <v>0.35546875</v>
+        <v>0.36328125</v>
       </c>
       <c r="R13" s="8">
         <f t="shared" si="0"/>
-        <v>7.5639612779582199E-4</v>
+        <v>1.5798994541391109E-3</v>
       </c>
       <c r="S13" s="8">
         <f t="shared" si="8"/>
-        <v>0.357421875</v>
+        <v>0.365234375</v>
       </c>
       <c r="T13" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4092511362653326E-3</v>
+        <v>-6.2717102324721941E-4</v>
       </c>
       <c r="U13" s="8">
         <f t="shared" si="3"/>
-        <v>0.3564453125</v>
+        <v>0.3642578125</v>
       </c>
       <c r="V13" s="8">
         <f t="shared" si="2"/>
-        <v>-3.2671600121236821E-4</v>
+        <v>4.7602675077096368E-4</v>
       </c>
       <c r="W13" s="8">
         <f t="shared" si="4"/>
-        <v>-2.4712671820597038E-7</v>
+        <v>7.5207440369866017E-7</v>
       </c>
       <c r="X13" s="8">
         <f t="shared" si="5"/>
-        <v>4.604248959445957E-7</v>
+        <v>-2.9855018437407438E-7</v>
       </c>
       <c r="Y13" s="8">
         <f t="shared" si="6"/>
@@ -8028,32 +8028,32 @@
       </c>
       <c r="AB13" s="8">
         <f t="shared" si="13"/>
-        <v>937.5</v>
+        <v>1062.5</v>
       </c>
       <c r="AC13" s="8">
-        <v>-3.6922974510615632</v>
+        <v>-1.6008324167196406</v>
       </c>
       <c r="AD13" s="8">
         <f t="shared" si="14"/>
-        <v>945.3125</v>
+        <v>1070.3125</v>
       </c>
       <c r="AE13" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>1.3004261834397539</v>
       </c>
       <c r="AF13" s="8">
         <f t="shared" si="9"/>
-        <v>941.40625</v>
+        <v>1066.40625</v>
       </c>
       <c r="AG13" s="8">
-        <v>-1.8039621751812547</v>
+        <v>-0.1478449265270001</v>
       </c>
       <c r="AH13" s="8">
         <f t="shared" si="10"/>
-        <v>6.6607649412332197</v>
+        <v>0.23667495103195527</v>
       </c>
       <c r="AI13" s="8">
         <f t="shared" si="11"/>
-        <v>-0.14532494536333479</v>
+        <v>-0.19226141354443757</v>
       </c>
       <c r="AJ13" s="8">
         <f t="shared" si="12"/>
@@ -8072,7 +8072,7 @@
       </c>
       <c r="G14">
         <f xml:space="preserve"> IF( $C$30&gt;=2*SQRT(($C$17*$C$35)/(2*$C$34*$C$5*PI()*$C$18*$C$18)), ($C$17*$C$35)/$C$9 * ( ($C$30/2) - SQRT( ($C$30/2)^2 - ($C$17*$C$35)/(2*$C$34*$C$5*PI()*$C$18*$C$18 ) ) ), 1/$C$9 * SQRT(($C$17*$C$35)^3/(2*$C$34*$C$5*PI()*$C$18*$C$18)) )</f>
-        <v>175168.71747119181</v>
+        <v>210056.37226239257</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
@@ -8082,35 +8082,35 @@
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="7"/>
-        <v>0.35546875</v>
+        <v>0.3642578125</v>
       </c>
       <c r="R14" s="8">
         <f t="shared" si="0"/>
-        <v>7.5639612779582199E-4</v>
+        <v>4.7602675077096368E-4</v>
       </c>
       <c r="S14" s="8">
         <f t="shared" si="8"/>
-        <v>0.3564453125</v>
+        <v>0.365234375</v>
       </c>
       <c r="T14" s="8">
         <f t="shared" si="1"/>
-        <v>-3.2671600121236821E-4</v>
+        <v>-6.2717102324721941E-4</v>
       </c>
       <c r="U14" s="8">
         <f t="shared" si="3"/>
-        <v>0.35595703125</v>
+        <v>0.36474609375</v>
       </c>
       <c r="V14" s="8">
         <f t="shared" si="2"/>
-        <v>2.1476764582550878E-4</v>
+        <v>-7.5656167494164706E-5</v>
       </c>
       <c r="W14" s="8">
         <f t="shared" si="4"/>
-        <v>1.6244941567823937E-7</v>
+        <v>-3.6014359588031024E-8</v>
       </c>
       <c r="X14" s="8">
         <f t="shared" si="5"/>
-        <v>-7.0168026433904391E-8</v>
+        <v>4.7449355982278295E-8</v>
       </c>
       <c r="Y14" s="8">
         <f t="shared" si="6"/>
@@ -8121,32 +8121,32 @@
       </c>
       <c r="AB14" s="8">
         <f t="shared" si="13"/>
-        <v>941.40625</v>
+        <v>1066.40625</v>
       </c>
       <c r="AC14" s="8">
-        <v>-1.8039621751812547</v>
+        <v>-0.1478449265270001</v>
       </c>
       <c r="AD14" s="8">
         <f t="shared" si="14"/>
-        <v>945.3125</v>
+        <v>1070.3125</v>
       </c>
       <c r="AE14" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>1.3004261834397539</v>
       </c>
       <c r="AF14" s="8">
         <f t="shared" si="9"/>
-        <v>943.359375</v>
+        <v>1068.359375</v>
       </c>
       <c r="AG14" s="8">
-        <v>-0.86122422150060629</v>
+        <v>0.57688071010068143</v>
       </c>
       <c r="AH14" s="8">
         <f t="shared" si="10"/>
-        <v>1.5536159199370163</v>
+        <v>-8.5288886199678893E-2</v>
       </c>
       <c r="AI14" s="8">
         <f t="shared" si="11"/>
-        <v>-6.9379150326464495E-2</v>
+        <v>0.7501907801362443</v>
       </c>
       <c r="AJ14" s="8">
         <f t="shared" si="12"/>
@@ -8159,7 +8159,7 @@
       </c>
       <c r="G15">
         <f xml:space="preserve"> $C$17 * $C$35 / $C$5</f>
-        <v>1545.3126549863646</v>
+        <v>1744.2252461460612</v>
       </c>
       <c r="H15" t="s">
         <v>34</v>
@@ -8169,35 +8169,35 @@
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="7"/>
-        <v>0.35595703125</v>
+        <v>0.3642578125</v>
       </c>
       <c r="R15" s="8">
         <f t="shared" si="0"/>
-        <v>2.1476764582550878E-4</v>
+        <v>4.7602675077096368E-4</v>
       </c>
       <c r="S15" s="8">
         <f t="shared" si="8"/>
-        <v>0.3564453125</v>
+        <v>0.36474609375</v>
       </c>
       <c r="T15" s="8">
         <f t="shared" si="1"/>
-        <v>-3.2671600121236821E-4</v>
+        <v>-7.5656167494164706E-5</v>
       </c>
       <c r="U15" s="8">
         <f t="shared" si="3"/>
-        <v>0.356201171875</v>
+        <v>0.364501953125</v>
       </c>
       <c r="V15" s="8">
         <f t="shared" si="2"/>
-        <v>-5.5992245283520425E-5</v>
+        <v>2.0016424209845507E-4</v>
       </c>
       <c r="W15" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2025322704026128E-8</v>
+        <v>9.5283533786660113E-8</v>
       </c>
       <c r="X15" s="8">
         <f t="shared" si="5"/>
-        <v>1.8293562477933878E-8</v>
+        <v>-1.514365942654325E-8</v>
       </c>
       <c r="Y15" s="8">
         <f t="shared" si="6"/>
@@ -8208,32 +8208,32 @@
       </c>
       <c r="AB15" s="8">
         <f t="shared" si="13"/>
-        <v>943.359375</v>
+        <v>1066.40625</v>
       </c>
       <c r="AC15" s="8">
-        <v>-0.86122422150060629</v>
+        <v>-0.1478449265270001</v>
       </c>
       <c r="AD15" s="8">
         <f t="shared" si="14"/>
-        <v>945.3125</v>
+        <v>1068.359375</v>
       </c>
       <c r="AE15" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>0.57688071010068143</v>
       </c>
       <c r="AF15" s="8">
         <f t="shared" si="9"/>
-        <v>944.3359375</v>
+        <v>1067.3828125</v>
       </c>
       <c r="AG15" s="8">
-        <v>-0.39021335343045394</v>
+        <v>0.21466544043607882</v>
       </c>
       <c r="AH15" s="8">
         <f t="shared" si="10"/>
-        <v>0.33606119152728364</v>
+        <v>-3.1737196269158191E-2</v>
       </c>
       <c r="AI15" s="8">
         <f t="shared" si="11"/>
-        <v>-3.1435101604403985E-2</v>
+        <v>0.12383635171284069</v>
       </c>
       <c r="AJ15" s="8">
         <f t="shared" si="12"/>
@@ -8241,60 +8241,60 @@
       </c>
     </row>
     <row r="16" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
       <c r="F16" t="s">
         <v>132</v>
       </c>
       <c r="G16">
         <f xml:space="preserve"> $C$31/$C$30</f>
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H16" t="s">
         <v>25</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="43" t="s">
         <v>47</v>
       </c>
-      <c r="K16" s="30"/>
-      <c r="L16" s="30"/>
+      <c r="K16" s="46"/>
+      <c r="L16" s="46"/>
       <c r="P16" s="8">
         <v>12</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="7"/>
-        <v>0.35595703125</v>
+        <v>0.364501953125</v>
       </c>
       <c r="R16" s="8">
         <f t="shared" si="0"/>
-        <v>2.1476764582550878E-4</v>
+        <v>2.0016424209845507E-4</v>
       </c>
       <c r="S16" s="8">
         <f t="shared" si="8"/>
-        <v>0.356201171875</v>
+        <v>0.36474609375</v>
       </c>
       <c r="T16" s="8">
         <f t="shared" si="1"/>
-        <v>-5.5992245283520425E-5</v>
+        <v>-7.5656167494164706E-5</v>
       </c>
       <c r="U16" s="8">
         <f t="shared" si="3"/>
-        <v>0.3560791015625</v>
+        <v>0.3646240234375</v>
       </c>
       <c r="V16" s="8">
         <f t="shared" si="2"/>
-        <v>7.9383178784198094E-5</v>
+        <v>6.2248780141493931E-5</v>
       </c>
       <c r="W16" s="8">
         <f t="shared" si="4"/>
-        <v>1.7048938425627699E-8</v>
+        <v>1.2459979898575493E-8</v>
       </c>
       <c r="X16" s="8">
         <f t="shared" si="5"/>
-        <v>-4.444842417870374E-9</v>
+        <v>-4.7095041366922989E-9</v>
       </c>
       <c r="Y16" s="8">
         <f t="shared" si="6"/>
@@ -8305,32 +8305,32 @@
       </c>
       <c r="AB16" s="8">
         <f t="shared" si="13"/>
-        <v>944.3359375</v>
+        <v>1066.40625</v>
       </c>
       <c r="AC16" s="8">
-        <v>-0.39021335343045394</v>
+        <v>-0.1478449265270001</v>
       </c>
       <c r="AD16" s="8">
         <f t="shared" si="14"/>
-        <v>945.3125</v>
+        <v>1067.3828125</v>
       </c>
       <c r="AE16" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>0.21466544043607882</v>
       </c>
       <c r="AF16" s="8">
         <f t="shared" si="9"/>
-        <v>944.82421875</v>
+        <v>1066.89453125</v>
       </c>
       <c r="AG16" s="8">
-        <v>-0.15479732814128511</v>
+        <v>3.3447278496964827E-2</v>
       </c>
       <c r="AH16" s="8">
         <f t="shared" si="10"/>
-        <v>6.0403984516085238E-2</v>
+        <v>-4.9450104319118749E-3</v>
       </c>
       <c r="AI16" s="8">
         <f t="shared" si="11"/>
-        <v>-1.2470279900553995E-2</v>
+        <v>7.1799747699391432E-3</v>
       </c>
       <c r="AJ16" s="8">
         <f t="shared" si="12"/>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="C17" s="3">
         <f>AF44</f>
-        <v>945.14535473172145</v>
+        <v>1066.8044318936154</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -8363,35 +8363,35 @@
       </c>
       <c r="Q17" s="8">
         <f t="shared" si="7"/>
-        <v>0.3560791015625</v>
+        <v>0.3646240234375</v>
       </c>
       <c r="R17" s="8">
         <f t="shared" si="0"/>
-        <v>7.9383178784198094E-5</v>
+        <v>6.2248780141493931E-5</v>
       </c>
       <c r="S17" s="8">
         <f t="shared" si="8"/>
-        <v>0.356201171875</v>
+        <v>0.36474609375</v>
       </c>
       <c r="T17" s="8">
         <f t="shared" si="1"/>
-        <v>-5.5992245283520425E-5</v>
+        <v>-7.5656167494164706E-5</v>
       </c>
       <c r="U17" s="8">
         <f t="shared" si="3"/>
-        <v>0.35614013671875</v>
+        <v>0.36468505859375</v>
       </c>
       <c r="V17" s="8">
         <f t="shared" si="2"/>
-        <v>1.1694336952750017E-5</v>
+        <v>-6.7050073142005395E-6</v>
       </c>
       <c r="W17" s="8">
         <f t="shared" si="4"/>
-        <v>9.2833364108280902E-10</v>
+        <v>-4.173785261487781E-10</v>
       </c>
       <c r="X17" s="8">
         <f t="shared" si="5"/>
-        <v>-6.5479218308651575E-10</v>
+        <v>5.0727515641275547E-10</v>
       </c>
       <c r="Y17" s="8">
         <f t="shared" si="6"/>
@@ -8402,32 +8402,32 @@
       </c>
       <c r="AB17" s="8">
         <f t="shared" si="13"/>
-        <v>944.82421875</v>
+        <v>1066.40625</v>
       </c>
       <c r="AC17" s="8">
-        <v>-0.15479732814128511</v>
+        <v>-0.1478449265270001</v>
       </c>
       <c r="AD17" s="8">
         <f t="shared" si="14"/>
-        <v>945.3125</v>
+        <v>1066.89453125</v>
       </c>
       <c r="AE17" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>3.3447278496964827E-2</v>
       </c>
       <c r="AF17" s="8">
         <f t="shared" si="9"/>
-        <v>945.068359375</v>
+        <v>1066.650390625</v>
       </c>
       <c r="AG17" s="8">
-        <v>-3.7111677805228283E-2</v>
+        <v>-5.7189678248619202E-2</v>
       </c>
       <c r="AH17" s="8">
         <f t="shared" si="10"/>
-        <v>5.7447885670895696E-3</v>
+        <v>8.4552037787698816E-3</v>
       </c>
       <c r="AI17" s="8">
         <f t="shared" si="11"/>
-        <v>-2.989670528343862E-3</v>
+        <v>-1.9128390955333782E-3</v>
       </c>
       <c r="AJ17" s="8">
         <f t="shared" si="12"/>
@@ -8454,7 +8454,7 @@
       </c>
       <c r="K18">
         <f xml:space="preserve"> K12 / $C$6</f>
-        <v>953.7829467815917</v>
+        <v>1189.7376259058867</v>
       </c>
       <c r="L18" t="s">
         <v>34</v>
@@ -8464,35 +8464,35 @@
       </c>
       <c r="Q18" s="8">
         <f t="shared" si="7"/>
-        <v>0.35614013671875</v>
+        <v>0.3646240234375</v>
       </c>
       <c r="R18" s="8">
         <f t="shared" si="0"/>
-        <v>1.1694336952750017E-5</v>
+        <v>6.2248780141493931E-5</v>
       </c>
       <c r="S18" s="8">
         <f t="shared" si="8"/>
-        <v>0.356201171875</v>
+        <v>0.36468505859375</v>
       </c>
       <c r="T18" s="8">
         <f t="shared" si="1"/>
-        <v>-5.5992245283520425E-5</v>
+        <v>-6.7050073142005395E-6</v>
       </c>
       <c r="U18" s="8">
         <f t="shared" si="3"/>
-        <v>0.356170654296875</v>
+        <v>0.364654541015625</v>
       </c>
       <c r="V18" s="8">
         <f t="shared" si="2"/>
-        <v>-2.2149236543034245E-5</v>
+        <v>2.7771557922662282E-5</v>
       </c>
       <c r="W18" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5902063538040644E-10</v>
+        <v>1.7287456033145682E-9</v>
       </c>
       <c r="X18" s="8">
         <f t="shared" si="5"/>
-        <v>1.2401854853602875E-9</v>
+        <v>-1.8620849899819454E-10</v>
       </c>
       <c r="Y18" s="8">
         <f t="shared" si="6"/>
@@ -8503,32 +8503,32 @@
       </c>
       <c r="AB18" s="8">
         <f t="shared" si="13"/>
-        <v>945.068359375</v>
+        <v>1066.650390625</v>
       </c>
       <c r="AC18" s="8">
-        <v>-3.7111677805228283E-2</v>
+        <v>-5.7189678248619202E-2</v>
       </c>
       <c r="AD18" s="8">
         <f t="shared" si="14"/>
-        <v>945.3125</v>
+        <v>1066.89453125</v>
       </c>
       <c r="AE18" s="8">
-        <v>8.0558754148341905E-2</v>
+        <v>3.3447278496964827E-2</v>
       </c>
       <c r="AF18" s="8">
         <f t="shared" si="9"/>
-        <v>945.1904296875</v>
+        <v>1066.7724609375</v>
       </c>
       <c r="AG18" s="8">
-        <v>2.1725325835632248E-2</v>
+        <v>-1.1868841065734159E-2</v>
       </c>
       <c r="AH18" s="8">
         <f t="shared" si="10"/>
-        <v>-8.0626329262558586E-4</v>
+        <v>6.7877520173333517E-4</v>
       </c>
       <c r="AI18" s="8">
         <f t="shared" si="11"/>
-        <v>1.7501651827853189E-3</v>
+        <v>-3.9698043256182323E-4</v>
       </c>
       <c r="AJ18" s="8">
         <f t="shared" si="12"/>
@@ -8550,7 +8550,7 @@
       </c>
       <c r="G19">
         <f xml:space="preserve"> (G4*G6 + G10*G11 + G14*G16)/3600</f>
-        <v>17394.782334769068</v>
+        <v>31252.70573348174</v>
       </c>
       <c r="H19" t="s">
         <v>40</v>
@@ -8570,35 +8570,35 @@
       </c>
       <c r="Q19" s="8">
         <f t="shared" si="7"/>
-        <v>0.35614013671875</v>
+        <v>0.364654541015625</v>
       </c>
       <c r="R19" s="8">
         <f t="shared" si="0"/>
-        <v>1.1694336952750017E-5</v>
+        <v>2.7771557922662282E-5</v>
       </c>
       <c r="S19" s="8">
         <f t="shared" si="8"/>
-        <v>0.356170654296875</v>
+        <v>0.36468505859375</v>
       </c>
       <c r="T19" s="8">
         <f t="shared" si="1"/>
-        <v>-2.2149236543034245E-5</v>
+        <v>-6.7050073142005395E-6</v>
       </c>
       <c r="U19" s="8">
         <f t="shared" si="3"/>
-        <v>0.3561553955078125</v>
+        <v>0.3646697998046875</v>
       </c>
       <c r="V19" s="8">
         <f t="shared" si="2"/>
-        <v>-5.2275203984986085E-6</v>
+        <v>1.0533193191664125E-5</v>
       </c>
       <c r="W19" s="8">
         <f t="shared" si="4"/>
-        <v>-6.1132384967416774E-11</v>
+        <v>2.9252318483289226E-10</v>
       </c>
       <c r="X19" s="8">
         <f t="shared" si="5"/>
-        <v>1.1578558583988232E-10</v>
+        <v>-7.062513739199528E-11</v>
       </c>
       <c r="Y19" s="8">
         <f t="shared" si="6"/>
@@ -8609,32 +8609,32 @@
       </c>
       <c r="AB19" s="8">
         <f t="shared" si="13"/>
-        <v>945.068359375</v>
+        <v>1066.7724609375</v>
       </c>
       <c r="AC19" s="8">
-        <v>-3.7111677805228283E-2</v>
+        <v>-1.1868841065734159E-2</v>
       </c>
       <c r="AD19" s="8">
         <f t="shared" si="14"/>
-        <v>945.1904296875</v>
+        <v>1066.89453125</v>
       </c>
       <c r="AE19" s="8">
-        <v>2.1725325835632248E-2</v>
+        <v>3.3447278496964827E-2</v>
       </c>
       <c r="AF19" s="8">
         <f t="shared" si="9"/>
-        <v>945.12939453125</v>
+        <v>1066.83349609375</v>
       </c>
       <c r="AG19" s="8">
-        <v>-7.6926142559159416E-3</v>
+        <v>1.0789627866643059E-2</v>
       </c>
       <c r="AH19" s="8">
         <f t="shared" si="10"/>
-        <v>2.8548582174545834E-4</v>
+        <v>-1.2806037830760279E-4</v>
       </c>
       <c r="AI19" s="8">
         <f t="shared" si="11"/>
-        <v>-1.6712455123760354E-4</v>
+        <v>3.6088368813422288E-4</v>
       </c>
       <c r="AJ19" s="8">
         <f t="shared" si="12"/>
@@ -8656,7 +8656,7 @@
       </c>
       <c r="G20">
         <f xml:space="preserve"> G6 + G11 + G16</f>
-        <v>1160</v>
+        <v>1320</v>
       </c>
       <c r="H20" t="s">
         <v>25</v>
@@ -8673,35 +8673,35 @@
       </c>
       <c r="Q20" s="8">
         <f t="shared" si="7"/>
-        <v>0.35614013671875</v>
+        <v>0.3646697998046875</v>
       </c>
       <c r="R20" s="8">
         <f t="shared" si="0"/>
-        <v>1.1694336952750017E-5</v>
+        <v>1.0533193191664125E-5</v>
       </c>
       <c r="S20" s="8">
         <f t="shared" si="8"/>
-        <v>0.3561553955078125</v>
+        <v>0.36468505859375</v>
       </c>
       <c r="T20" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2275203984986085E-6</v>
+        <v>-6.7050073142005395E-6</v>
       </c>
       <c r="U20" s="8">
         <f t="shared" si="3"/>
-        <v>0.35614776611328125</v>
+        <v>0.36467742919921875</v>
       </c>
       <c r="V20" s="8">
         <f t="shared" si="2"/>
-        <v>3.2333906251347244E-6</v>
+        <v>1.9140724119015573E-6</v>
       </c>
       <c r="W20" s="8">
         <f t="shared" si="4"/>
-        <v>3.7812359470188487E-11</v>
+        <v>2.0161294497393614E-11</v>
       </c>
       <c r="X20" s="8">
         <f t="shared" si="5"/>
-        <v>-1.6902615449205939E-11</v>
+        <v>-1.2833869521709409E-11</v>
       </c>
       <c r="Y20" s="8">
         <f t="shared" si="6"/>
@@ -8712,32 +8712,32 @@
       </c>
       <c r="AB20" s="8">
         <f t="shared" si="13"/>
-        <v>945.12939453125</v>
+        <v>1066.7724609375</v>
       </c>
       <c r="AC20" s="8">
-        <v>-7.6926142559159416E-3</v>
+        <v>-1.1868841065734159E-2</v>
       </c>
       <c r="AD20" s="8">
         <f t="shared" si="14"/>
-        <v>945.1904296875</v>
+        <v>1066.83349609375</v>
       </c>
       <c r="AE20" s="8">
-        <v>2.1725325835632248E-2</v>
+        <v>1.0789627866643059E-2</v>
       </c>
       <c r="AF20" s="8">
         <f t="shared" si="9"/>
-        <v>945.159912109375</v>
+        <v>1066.802978515625</v>
       </c>
       <c r="AG20" s="8">
-        <v>7.0164675206569882E-3</v>
+        <v>-5.3961264723056956E-4</v>
       </c>
       <c r="AH20" s="8">
         <f t="shared" si="10"/>
-        <v>-5.3974978075577129E-5</v>
+        <v>6.4045767470397039E-6</v>
       </c>
       <c r="AI20" s="8">
         <f t="shared" si="11"/>
-        <v>1.5243504310140379E-4</v>
+        <v>-5.8222196557519837E-6</v>
       </c>
       <c r="AJ20" s="8">
         <f t="shared" si="12"/>
@@ -8759,42 +8759,42 @@
       </c>
       <c r="K21">
         <f xml:space="preserve"> K18 / ( $C$34 * PI() * $C$19^2 * K19^2 * $C$19^2)</f>
-        <v>2.7901100725555548E-2</v>
+        <v>3.4803504769502704E-2</v>
       </c>
       <c r="P21" s="8">
         <v>17</v>
       </c>
       <c r="Q21" s="8">
         <f t="shared" si="7"/>
-        <v>0.35614776611328125</v>
+        <v>0.36467742919921875</v>
       </c>
       <c r="R21" s="8">
         <f t="shared" si="0"/>
-        <v>3.2333906251347244E-6</v>
+        <v>1.9140724119015573E-6</v>
       </c>
       <c r="S21" s="8">
         <f t="shared" si="8"/>
-        <v>0.3561553955078125</v>
+        <v>0.36468505859375</v>
       </c>
       <c r="T21" s="8">
         <f t="shared" si="1"/>
-        <v>-5.2275203984986085E-6</v>
+        <v>-6.7050073142005395E-6</v>
       </c>
       <c r="U21" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615158081054688</v>
+        <v>0.36468124389648438</v>
       </c>
       <c r="V21" s="8">
         <f t="shared" si="2"/>
-        <v>-9.970692995131536E-7</v>
+        <v>-2.3954725827390888E-6</v>
       </c>
       <c r="W21" s="8">
         <f t="shared" si="4"/>
-        <v>-3.2239145256554776E-12</v>
+        <v>-4.5851079840874608E-12</v>
       </c>
       <c r="X21" s="8">
         <f t="shared" si="5"/>
-        <v>5.2122001019217288E-12</v>
+        <v>1.6061661188232448E-11</v>
       </c>
       <c r="Y21" s="8">
         <f t="shared" si="6"/>
@@ -8805,32 +8805,32 @@
       </c>
       <c r="AB21" s="8">
         <f t="shared" si="13"/>
-        <v>945.12939453125</v>
+        <v>1066.802978515625</v>
       </c>
       <c r="AC21" s="8">
-        <v>-7.6926142559159416E-3</v>
+        <v>-5.3961264723056956E-4</v>
       </c>
       <c r="AD21" s="8">
         <f t="shared" si="14"/>
-        <v>945.159912109375</v>
+        <v>1066.83349609375</v>
       </c>
       <c r="AE21" s="8">
-        <v>7.0164675206569882E-3</v>
+        <v>1.0789627866643059E-2</v>
       </c>
       <c r="AF21" s="8">
         <f t="shared" si="9"/>
-        <v>945.1446533203125</v>
+        <v>1066.8182373046875</v>
       </c>
       <c r="AG21" s="8">
-        <v>-3.3804543534188269E-4</v>
+        <v>5.1251866657366918E-3</v>
       </c>
       <c r="AH21" s="8">
         <f t="shared" si="10"/>
-        <v>2.6004531350582774E-6</v>
+        <v>-2.7656155442489924E-6</v>
       </c>
       <c r="AI21" s="8">
         <f t="shared" si="11"/>
-        <v>-2.3718848175826718E-6</v>
+        <v>5.5298856870380035E-5</v>
       </c>
       <c r="AJ21" s="8">
         <f t="shared" si="12"/>
@@ -8860,35 +8860,35 @@
       </c>
       <c r="Q22" s="8">
         <f t="shared" si="7"/>
-        <v>0.35614776611328125</v>
+        <v>0.36467742919921875</v>
       </c>
       <c r="R22" s="8">
         <f t="shared" si="0"/>
-        <v>3.2333906251347244E-6</v>
+        <v>1.9140724119015573E-6</v>
       </c>
       <c r="S22" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615158081054688</v>
+        <v>0.36468124389648438</v>
       </c>
       <c r="T22" s="8">
         <f t="shared" si="1"/>
-        <v>-9.970692995131536E-7</v>
+        <v>-2.3954725827390888E-6</v>
       </c>
       <c r="U22" s="8">
         <f t="shared" si="3"/>
-        <v>0.35614967346191406</v>
+        <v>0.36467933654785156</v>
       </c>
       <c r="V22" s="8">
         <f t="shared" si="2"/>
-        <v>1.1181595596099214E-6</v>
+        <v>-2.4070136833698186E-7</v>
       </c>
       <c r="W22" s="8">
         <f t="shared" si="4"/>
-        <v>3.6154466374474918E-12</v>
+        <v>-4.6071984864077201E-13</v>
       </c>
       <c r="X22" s="8">
         <f t="shared" si="5"/>
-        <v>-1.1148825688442007E-12</v>
+        <v>5.7659352847902269E-13</v>
       </c>
       <c r="Y22" s="8">
         <f t="shared" si="6"/>
@@ -8899,32 +8899,32 @@
       </c>
       <c r="AB22" s="8">
         <f t="shared" si="13"/>
-        <v>945.1446533203125</v>
+        <v>1066.802978515625</v>
       </c>
       <c r="AC22" s="8">
-        <v>-3.3804543534188269E-4</v>
+        <v>-5.3961264723056956E-4</v>
       </c>
       <c r="AD22" s="8">
         <f t="shared" si="14"/>
-        <v>945.159912109375</v>
+        <v>1066.8182373046875</v>
       </c>
       <c r="AE22" s="8">
-        <v>7.0164675206569882E-3</v>
+        <v>5.1251866657366918E-3</v>
       </c>
       <c r="AF22" s="8">
         <f t="shared" si="9"/>
-        <v>945.15228271484375</v>
+        <v>1066.8106079101562</v>
       </c>
       <c r="AG22" s="8">
-        <v>3.3391031921610193E-3</v>
+        <v>2.2927956583771447E-3</v>
       </c>
       <c r="AH22" s="8">
         <f t="shared" si="10"/>
-        <v>-1.128768592245542E-6</v>
+        <v>-1.2372215347756477E-6</v>
       </c>
       <c r="AI22" s="8">
         <f t="shared" si="11"/>
-        <v>2.342870909591986E-5</v>
+        <v>1.1751005735573522E-5</v>
       </c>
       <c r="AJ22" s="8">
         <f t="shared" si="12"/>
@@ -8943,7 +8943,7 @@
       </c>
       <c r="G23" s="5">
         <f>C17</f>
-        <v>945.14535473172145</v>
+        <v>1066.8044318936154</v>
       </c>
       <c r="H23" t="s">
         <v>13</v>
@@ -8963,35 +8963,35 @@
       </c>
       <c r="Q23" s="8">
         <f t="shared" si="7"/>
-        <v>0.35614967346191406</v>
+        <v>0.36467742919921875</v>
       </c>
       <c r="R23" s="8">
         <f t="shared" si="0"/>
-        <v>1.1181595596099214E-6</v>
+        <v>1.9140724119015573E-6</v>
       </c>
       <c r="S23" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615158081054688</v>
+        <v>0.36467933654785156</v>
       </c>
       <c r="T23" s="8">
         <f t="shared" si="1"/>
-        <v>-9.970692995131536E-7</v>
+        <v>-2.4070136833698186E-7</v>
       </c>
       <c r="U23" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615062713623047</v>
+        <v>0.36467838287353516</v>
       </c>
       <c r="V23" s="8">
         <f t="shared" si="2"/>
-        <v>6.0544854241229018E-8</v>
+        <v>8.3668520101110033E-7</v>
       </c>
       <c r="W23" s="8">
         <f t="shared" si="4"/>
-        <v>6.7698807555019522E-14</v>
+        <v>1.6014760607016561E-12</v>
       </c>
       <c r="X23" s="8">
         <f t="shared" si="5"/>
-        <v>-6.0367415407428208E-14</v>
+        <v>-2.0139127275067457E-13</v>
       </c>
       <c r="Y23" s="8">
         <f t="shared" si="6"/>
@@ -9002,32 +9002,32 @@
       </c>
       <c r="AB23" s="8">
         <f t="shared" si="13"/>
-        <v>945.1446533203125</v>
+        <v>1066.802978515625</v>
       </c>
       <c r="AC23" s="8">
-        <v>-3.3804543534188269E-4</v>
+        <v>-5.3961264723056956E-4</v>
       </c>
       <c r="AD23" s="8">
         <f t="shared" si="14"/>
-        <v>945.15228271484375</v>
+        <v>1066.8106079101562</v>
       </c>
       <c r="AE23" s="8">
-        <v>3.3391031921610193E-3</v>
+        <v>2.2927956583771447E-3</v>
       </c>
       <c r="AF23" s="8">
         <f t="shared" si="9"/>
-        <v>945.14846801757812</v>
+        <v>1066.8067932128906</v>
       </c>
       <c r="AG23" s="8">
-        <v>1.5005306247530825E-3</v>
+        <v>8.7659366772641079E-4</v>
       </c>
       <c r="AH23" s="8">
         <f t="shared" si="10"/>
-        <v>-5.0724752828848304E-7</v>
+        <v>-4.730210295874028E-7</v>
       </c>
       <c r="AI23" s="8">
         <f t="shared" si="11"/>
-        <v>5.0104265990483867E-6</v>
+        <v>2.009850155524012E-6</v>
       </c>
       <c r="AJ23" s="8">
         <f t="shared" si="12"/>
@@ -9040,7 +9040,7 @@
       </c>
       <c r="G24">
         <f xml:space="preserve"> G19 / ($C$12 * $C$13 * $C$14)</f>
-        <v>102.32224902805335</v>
+        <v>183.83944549106906</v>
       </c>
       <c r="H24" t="s">
         <v>13</v>
@@ -9050,42 +9050,42 @@
       </c>
       <c r="K24" s="5">
         <f>U34</f>
-        <v>0.35615068161860108</v>
+        <v>0.36467912374064326</v>
       </c>
       <c r="P24" s="8">
         <v>20</v>
       </c>
       <c r="Q24" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615062713623047</v>
+        <v>0.36467838287353516</v>
       </c>
       <c r="R24" s="8">
         <f t="shared" si="0"/>
-        <v>6.0544854241229018E-8</v>
+        <v>8.3668520101110033E-7</v>
       </c>
       <c r="S24" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615158081054688</v>
+        <v>0.36467933654785156</v>
       </c>
       <c r="T24" s="8">
         <f t="shared" si="1"/>
-        <v>-9.970692995131536E-7</v>
+        <v>-2.4070136833698186E-7</v>
       </c>
       <c r="U24" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615110397338867</v>
+        <v>0.36467885971069336</v>
       </c>
       <c r="V24" s="8">
         <f t="shared" si="2"/>
-        <v>-4.6826229160856769E-7</v>
+        <v>2.9799183615120128E-7</v>
       </c>
       <c r="W24" s="8">
         <f t="shared" si="4"/>
-        <v>-2.8350872192104608E-14</v>
+        <v>2.493253593298347E-13</v>
       </c>
       <c r="X24" s="8">
         <f t="shared" si="5"/>
-        <v>4.6688995508257867E-13</v>
+        <v>-7.1727042714843844E-14</v>
       </c>
       <c r="Y24" s="8">
         <f t="shared" si="6"/>
@@ -9096,32 +9096,32 @@
       </c>
       <c r="AB24" s="8">
         <f t="shared" si="13"/>
-        <v>945.1446533203125</v>
+        <v>1066.802978515625</v>
       </c>
       <c r="AC24" s="8">
-        <v>-3.3804543534188269E-4</v>
+        <v>-5.3961264723056956E-4</v>
       </c>
       <c r="AD24" s="8">
         <f t="shared" si="14"/>
-        <v>945.14846801757812</v>
+        <v>1066.8067932128906</v>
       </c>
       <c r="AE24" s="8">
-        <v>1.5005306247530825E-3</v>
+        <v>8.7659366772641079E-4</v>
       </c>
       <c r="AF24" s="8">
         <f t="shared" si="9"/>
-        <v>945.14656066894531</v>
+        <v>1066.8048858642578</v>
       </c>
       <c r="AG24" s="8">
-        <v>5.8112819885991485E-4</v>
+        <v>1.6863550422385742E-4</v>
       </c>
       <c r="AH24" s="8">
         <f t="shared" si="10"/>
-        <v>-1.9644773497304408E-7</v>
+        <v>-9.0997850851297603E-8</v>
       </c>
       <c r="AI24" s="8">
         <f t="shared" si="11"/>
-        <v>8.720006592969016E-7</v>
+        <v>1.4782481515648381E-7</v>
       </c>
       <c r="AJ24" s="8">
         <f t="shared" si="12"/>
@@ -9129,17 +9129,17 @@
       </c>
     </row>
     <row r="25" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="45"/>
       <c r="F25" s="12" t="s">
         <v>85</v>
       </c>
       <c r="G25">
         <f xml:space="preserve"> $C$37 * ($C$5 * 0.144 * (2*$C$18*3.28084 * (G4*0.00134102/$C$5) * 4^0.5)^0.782 * 0.453592 + C6 * $C$6 * 0.144 * (2*$C$19*3.28084 * (G10*0.00134102/$C$6) * 4^0.5)^0.782 * 0.453592)</f>
-        <v>51.997564646687117</v>
+        <v>60.197018584963409</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -9149,7 +9149,7 @@
       </c>
       <c r="K25">
         <f xml:space="preserve"> K19 * $C$19 * K24 - $C$20 * SIN(K17)</f>
-        <v>3.6805700055674677</v>
+        <v>4.4843567390826706</v>
       </c>
       <c r="L25" t="s">
         <v>18</v>
@@ -9159,35 +9159,35 @@
       </c>
       <c r="Q25" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615062713623047</v>
+        <v>0.36467885971069336</v>
       </c>
       <c r="R25" s="8">
         <f t="shared" si="0"/>
-        <v>6.0544854241229018E-8</v>
+        <v>2.9799183615120128E-7</v>
       </c>
       <c r="S25" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615110397338867</v>
+        <v>0.36467933654785156</v>
       </c>
       <c r="T25" s="8">
         <f t="shared" si="1"/>
-        <v>-4.6826229160856769E-7</v>
+        <v>-2.4070136833698186E-7</v>
       </c>
       <c r="U25" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615086555480957</v>
+        <v>0.36467909812927246</v>
       </c>
       <c r="V25" s="8">
         <f t="shared" si="2"/>
-        <v>-2.0385873594763737E-7</v>
+        <v>2.8645213867584118E-8</v>
       </c>
       <c r="W25" s="8">
         <f t="shared" si="4"/>
-        <v>-1.2342597453750898E-14</v>
+        <v>8.5360398773452454E-15</v>
       </c>
       <c r="X25" s="8">
         <f t="shared" si="5"/>
-        <v>9.5459358859266571E-14</v>
+        <v>-6.8949421742329854E-15</v>
       </c>
       <c r="Y25" s="8">
         <f t="shared" si="6"/>
@@ -9198,32 +9198,32 @@
       </c>
       <c r="AB25" s="8">
         <f t="shared" si="13"/>
-        <v>945.1446533203125</v>
+        <v>1066.802978515625</v>
       </c>
       <c r="AC25" s="8">
-        <v>-3.3804543534188269E-4</v>
+        <v>-5.3961264723056956E-4</v>
       </c>
       <c r="AD25" s="8">
         <f t="shared" si="14"/>
-        <v>945.14656066894531</v>
+        <v>1066.8048858642578</v>
       </c>
       <c r="AE25" s="8">
-        <v>5.8112819885991485E-4</v>
+        <v>1.6863550422385742E-4</v>
       </c>
       <c r="AF25" s="8">
         <f t="shared" si="9"/>
-        <v>945.14560699462891</v>
+        <v>1066.8039321899414</v>
       </c>
       <c r="AG25" s="8">
-        <v>1.2165632324467879E-4</v>
+        <v>-1.8548843650023628E-4</v>
       </c>
       <c r="AH25" s="8">
         <f t="shared" si="10"/>
-        <v>-4.1125364753340247E-8</v>
+        <v>1.0009190625055191E-7</v>
       </c>
       <c r="AI25" s="8">
         <f t="shared" si="11"/>
-        <v>7.069792000709978E-8</v>
+        <v>-3.1279936016912302E-8</v>
       </c>
       <c r="AJ25" s="8">
         <f t="shared" si="12"/>
@@ -9245,7 +9245,7 @@
       </c>
       <c r="G26">
         <f xml:space="preserve"> 0.2138 * (G4/1000) + 0.2138 * (G10/1000)</f>
-        <v>48.143776019286463</v>
+        <v>58.067973096928988</v>
       </c>
       <c r="H26" t="s">
         <v>13</v>
@@ -9255,42 +9255,42 @@
       </c>
       <c r="K26">
         <f xml:space="preserve"> 1/$C$9 - K23 * SQRT( (2*$C$34*PI()*$C$19^2) / K18^3 )</f>
-        <v>1.2739493794749197</v>
+        <v>1.2907081122002468</v>
       </c>
       <c r="P26" s="8">
         <v>22</v>
       </c>
       <c r="Q26" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615062713623047</v>
+        <v>0.36467909812927246</v>
       </c>
       <c r="R26" s="8">
         <f t="shared" si="0"/>
-        <v>6.0544854241229018E-8</v>
+        <v>2.8645213867584118E-8</v>
       </c>
       <c r="S26" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615086555480957</v>
+        <v>0.36467933654785156</v>
       </c>
       <c r="T26" s="8">
         <f t="shared" si="1"/>
-        <v>-2.0385873594763737E-7</v>
+        <v>-2.4070136833698186E-7</v>
       </c>
       <c r="U26" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615074634552002</v>
+        <v>0.36467921733856201</v>
       </c>
       <c r="V26" s="8">
         <f t="shared" si="2"/>
-        <v>-7.1656945155318397E-8</v>
+        <v>-1.0602808225845806E-7</v>
       </c>
       <c r="W26" s="8">
         <f t="shared" si="4"/>
-        <v>-4.3384592998004939E-15</v>
+        <v>-3.0371970922633325E-15</v>
       </c>
       <c r="X26" s="8">
         <f t="shared" si="5"/>
-        <v>1.4607894261232385E-14</v>
+        <v>2.5521104481756924E-14</v>
       </c>
       <c r="Y26" s="8">
         <f t="shared" si="6"/>
@@ -9301,32 +9301,32 @@
       </c>
       <c r="AB26" s="8">
         <f t="shared" si="13"/>
-        <v>945.1446533203125</v>
+        <v>1066.8039321899414</v>
       </c>
       <c r="AC26" s="8">
-        <v>-3.3804543534188269E-4</v>
+        <v>-1.8548843650023628E-4</v>
       </c>
       <c r="AD26" s="8">
         <f t="shared" si="14"/>
-        <v>945.14560699462891</v>
+        <v>1066.8048858642578</v>
       </c>
       <c r="AE26" s="8">
-        <v>1.2165632324467879E-4</v>
+        <v>1.6863550422385742E-4</v>
       </c>
       <c r="AF26" s="8">
         <f t="shared" si="9"/>
-        <v>945.1451301574707</v>
+        <v>1066.8044090270996</v>
       </c>
       <c r="AG26" s="8">
-        <v>-1.0830936071215547E-4</v>
+        <v>-8.4264323731986224E-6</v>
       </c>
       <c r="AH26" s="8">
         <f t="shared" si="10"/>
-        <v>3.6613484993541603E-8</v>
+        <v>1.5630057661795879E-9</v>
       </c>
       <c r="AI26" s="8">
         <f t="shared" si="11"/>
-        <v>-1.3176518597222498E-8</v>
+        <v>-1.4209956720625853E-9</v>
       </c>
       <c r="AJ26" s="8">
         <f t="shared" si="12"/>
@@ -9348,7 +9348,7 @@
       </c>
       <c r="G27">
         <f>2.20462 * (49.9/398 * (G4/$C$5/1000 -2) + 0.1) * $C$5 * 0.453592 + 2.20462 * (49.9/398 * (G9/1000 -2) + 0.1) * 0.453592 * $C$6</f>
-        <v>27.177207209282599</v>
+        <v>32.996956579181848</v>
       </c>
       <c r="H27" t="s">
         <v>13</v>
@@ -9364,35 +9364,35 @@
       </c>
       <c r="Q27" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615062713623047</v>
+        <v>0.36467909812927246</v>
       </c>
       <c r="R27" s="8">
         <f t="shared" si="0"/>
-        <v>6.0544854241229018E-8</v>
+        <v>2.8645213867584118E-8</v>
       </c>
       <c r="S27" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615074634552002</v>
+        <v>0.36467921733856201</v>
       </c>
       <c r="T27" s="8">
         <f t="shared" si="1"/>
-        <v>-7.1656945155318397E-8</v>
+        <v>-1.0602808225845806E-7</v>
       </c>
       <c r="U27" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615068674087524</v>
+        <v>0.36467915773391724</v>
       </c>
       <c r="V27" s="8">
         <f t="shared" si="2"/>
-        <v>-5.556046567267714E-9</v>
+        <v>-3.8691435444437872E-8</v>
       </c>
       <c r="W27" s="8">
         <f t="shared" si="4"/>
-        <v>-3.3639002957270459E-16</v>
+        <v>-1.1083244431497475E-15</v>
       </c>
       <c r="X27" s="8">
         <f t="shared" si="5"/>
-        <v>3.9812932415109761E-16</v>
+        <v>4.1023787000006781E-15</v>
       </c>
       <c r="Y27" s="8">
         <f t="shared" si="6"/>
@@ -9403,32 +9403,32 @@
       </c>
       <c r="AB27" s="8">
         <f t="shared" si="13"/>
-        <v>945.1451301574707</v>
+        <v>1066.8044090270996</v>
       </c>
       <c r="AC27" s="8">
-        <v>-1.0830936071215547E-4</v>
+        <v>-8.4264323731986224E-6</v>
       </c>
       <c r="AD27" s="8">
         <f t="shared" si="14"/>
-        <v>945.14560699462891</v>
+        <v>1066.8048858642578</v>
       </c>
       <c r="AE27" s="8">
-        <v>1.2165632324467879E-4</v>
+        <v>1.6863550422385742E-4</v>
       </c>
       <c r="AF27" s="8">
         <f t="shared" si="9"/>
-        <v>945.1453685760498</v>
+        <v>1066.8046474456787</v>
       </c>
       <c r="AG27" s="8">
-        <v>6.6734879737850861E-6</v>
+        <v>7.9960091170505621E-5</v>
       </c>
       <c r="AH27" s="8">
         <f t="shared" si="10"/>
-        <v>-7.2280121616092045E-10</v>
+        <v>-6.7377830080306189E-10</v>
       </c>
       <c r="AI27" s="8">
         <f t="shared" si="11"/>
-        <v>8.1187201010827491E-10</v>
+        <v>1.3484110292323826E-8</v>
       </c>
       <c r="AJ27" s="8">
         <f t="shared" si="12"/>
@@ -9450,7 +9450,7 @@
       </c>
       <c r="G28">
         <f xml:space="preserve"> $C$37 * (14.86 * ($C$17*2.20462)^0.144 * (6.7/(PI()*1.8))^0.778 * (6.7*3.28084)^0.383 * 4^0.455 * 0.453592)</f>
-        <v>113.48379417060595</v>
+        <v>115.47986332582191</v>
       </c>
       <c r="H28" t="s">
         <v>13</v>
@@ -9460,42 +9460,42 @@
       </c>
       <c r="K28">
         <f xml:space="preserve"> 1/$C$40 * LN( EXP($C$40 * K26) + EXP($C$40 * K27) )</f>
-        <v>1.2747487442322543</v>
+        <v>1.2911939010808382</v>
       </c>
       <c r="P28" s="8">
         <v>24</v>
       </c>
       <c r="Q28" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615062713623047</v>
+        <v>0.36467909812927246</v>
       </c>
       <c r="R28" s="8">
         <f t="shared" si="0"/>
-        <v>6.0544854241229018E-8</v>
+        <v>2.8645213867584118E-8</v>
       </c>
       <c r="S28" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068674087524</v>
+        <v>0.36467915773391724</v>
       </c>
       <c r="T28" s="8">
         <f t="shared" si="1"/>
-        <v>-5.556046567267714E-9</v>
+        <v>-3.8691435444437872E-8</v>
       </c>
       <c r="U28" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615065693855286</v>
+        <v>0.36467912793159485</v>
       </c>
       <c r="V28" s="8">
         <f t="shared" si="2"/>
-        <v>2.7494403587180472E-8</v>
+        <v>-5.0231110937382084E-9</v>
       </c>
       <c r="W28" s="8">
         <f t="shared" si="4"/>
-        <v>1.6646446576353659E-15</v>
+        <v>-1.4388809156076535E-16</v>
       </c>
       <c r="X28" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5276018666962717E-16</v>
+        <v>1.9435137861361161E-16</v>
       </c>
       <c r="Y28" s="8">
         <f t="shared" si="6"/>
@@ -9506,32 +9506,32 @@
       </c>
       <c r="AB28" s="8">
         <f t="shared" si="13"/>
-        <v>945.1451301574707</v>
+        <v>1066.8044090270996</v>
       </c>
       <c r="AC28" s="8">
-        <v>-1.0830936071215547E-4</v>
+        <v>-8.4264323731986224E-6</v>
       </c>
       <c r="AD28" s="8">
         <f t="shared" si="14"/>
-        <v>945.1453685760498</v>
+        <v>1066.8046474456787</v>
       </c>
       <c r="AE28" s="8">
-        <v>6.6734879737850861E-6</v>
+        <v>7.9960091170505621E-5</v>
       </c>
       <c r="AF28" s="8">
         <f t="shared" si="9"/>
-        <v>945.14524936676025</v>
+        <v>1066.8045282363892</v>
       </c>
       <c r="AG28" s="8">
-        <v>-5.070310260180122E-5</v>
+        <v>3.591128461266635E-5</v>
       </c>
       <c r="AH28" s="8">
         <f t="shared" si="10"/>
-        <v>5.4916206289239164E-9</v>
+        <v>-3.0260401122332128E-10</v>
       </c>
       <c r="AI28" s="8">
         <f t="shared" si="11"/>
-        <v>-3.3836654544671176E-10</v>
+        <v>2.871469591678777E-9</v>
       </c>
       <c r="AJ28" s="8">
         <f t="shared" si="12"/>
@@ -9543,7 +9543,7 @@
         <v>129</v>
       </c>
       <c r="C29" s="1">
-        <v>152.4</v>
+        <v>304.8</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -9553,7 +9553,7 @@
       </c>
       <c r="G29">
         <f xml:space="preserve"> $C$37 * (0.054 * (0.7*3.28084)^0.501 * ($C$17*2.20462*5.7)^0.684 * 0.453592)</f>
-        <v>18.203357087694794</v>
+        <v>19.775180405418567</v>
       </c>
       <c r="H29" t="s">
         <v>13</v>
@@ -9563,35 +9563,35 @@
       </c>
       <c r="Q29" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615065693855286</v>
+        <v>0.36467909812927246</v>
       </c>
       <c r="R29" s="8">
         <f t="shared" si="0"/>
-        <v>2.7494403587180472E-8</v>
+        <v>2.8645213867584118E-8</v>
       </c>
       <c r="S29" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068674087524</v>
+        <v>0.36467912793159485</v>
       </c>
       <c r="T29" s="8">
         <f t="shared" si="1"/>
-        <v>-5.556046567267714E-9</v>
+        <v>-5.0231110937382084E-9</v>
       </c>
       <c r="U29" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615067183971405</v>
+        <v>0.36467911303043365</v>
       </c>
       <c r="V29" s="8">
         <f t="shared" si="2"/>
-        <v>1.0969178454445228E-8</v>
+        <v>1.1811051303656228E-8</v>
       </c>
       <c r="W29" s="8">
         <f t="shared" si="4"/>
-        <v>3.015910194463216E-16</v>
+        <v>3.3833009059424088E-16</v>
       </c>
       <c r="X29" s="8">
         <f t="shared" si="5"/>
-        <v>-6.0945266297567375E-17</v>
+        <v>-5.9328222832106725E-17</v>
       </c>
       <c r="Y29" s="8">
         <f t="shared" si="6"/>
@@ -9602,32 +9602,32 @@
       </c>
       <c r="AB29" s="8">
         <f t="shared" si="13"/>
-        <v>945.14524936676025</v>
+        <v>1066.8044090270996</v>
       </c>
       <c r="AC29" s="8">
-        <v>-5.070310260180122E-5</v>
+        <v>-8.4264323731986224E-6</v>
       </c>
       <c r="AD29" s="8">
         <f t="shared" si="14"/>
-        <v>945.1453685760498</v>
+        <v>1066.8045282363892</v>
       </c>
       <c r="AE29" s="8">
-        <v>6.6734879737850861E-6</v>
+        <v>3.591128461266635E-5</v>
       </c>
       <c r="AF29" s="8">
         <f t="shared" si="9"/>
-        <v>945.14530897140503</v>
+        <v>1066.8044686317444</v>
       </c>
       <c r="AG29" s="8">
-        <v>-2.212963897818554E-5</v>
+        <v>1.3597973406831443E-5</v>
       </c>
       <c r="AH29" s="8">
         <f t="shared" si="10"/>
-        <v>1.122041355651761E-9</v>
+        <v>-1.1458240332521843E-10</v>
       </c>
       <c r="AI29" s="8">
         <f t="shared" si="11"/>
-        <v>-1.4768187958512689E-10</v>
+        <v>4.8832069316819222E-10</v>
       </c>
       <c r="AJ29" s="8">
         <f t="shared" si="12"/>
@@ -9649,7 +9649,7 @@
       </c>
       <c r="G30">
         <f xml:space="preserve"> $C$37 * (0.04674 * ($C$17*2.20462)^0.397 * ($C$21*3.28084^2)^0.36 * 3^0.397 * $C$22^1.712 * 0.453592)</f>
-        <v>139.65590178675686</v>
+        <v>146.53319454490611</v>
       </c>
       <c r="H30" t="s">
         <v>13</v>
@@ -9659,35 +9659,35 @@
       </c>
       <c r="Q30" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615067183971405</v>
+        <v>0.36467911303043365</v>
       </c>
       <c r="R30" s="8">
         <f t="shared" si="0"/>
-        <v>1.0969178454445228E-8</v>
+        <v>1.1811051303656228E-8</v>
       </c>
       <c r="S30" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068674087524</v>
+        <v>0.36467912793159485</v>
       </c>
       <c r="T30" s="8">
         <f t="shared" si="1"/>
-        <v>-5.556046567267714E-9</v>
+        <v>-5.0231110937382084E-9</v>
       </c>
       <c r="U30" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615067929029465</v>
+        <v>0.36467912048101425</v>
       </c>
       <c r="V30" s="8">
         <f t="shared" si="2"/>
-        <v>2.7065659158331812E-9</v>
+        <v>3.3939701049590099E-9</v>
       </c>
       <c r="W30" s="8">
         <f t="shared" si="4"/>
-        <v>2.9688804529493146E-17</v>
+        <v>4.0086355032746379E-17</v>
       </c>
       <c r="X30" s="8">
         <f t="shared" si="5"/>
-        <v>-1.5037806265748743E-17</v>
+        <v>-1.7048288886035434E-17</v>
       </c>
       <c r="Y30" s="8">
         <f t="shared" si="6"/>
@@ -9698,32 +9698,32 @@
       </c>
       <c r="AB30" s="8">
         <f t="shared" si="13"/>
-        <v>945.14530897140503</v>
+        <v>1066.8044090270996</v>
       </c>
       <c r="AC30" s="8">
-        <v>-2.212963897818554E-5</v>
+        <v>-8.4264323731986224E-6</v>
       </c>
       <c r="AD30" s="8">
         <f t="shared" si="14"/>
-        <v>945.1453685760498</v>
+        <v>1066.8044686317444</v>
       </c>
       <c r="AE30" s="8">
-        <v>6.6734879737850861E-6</v>
+        <v>1.3597973406831443E-5</v>
       </c>
       <c r="AF30" s="8">
         <f t="shared" si="9"/>
-        <v>945.14533877372742</v>
+        <v>1066.804438829422</v>
       </c>
       <c r="AG30" s="8">
-        <v>-7.7280752748265513E-6</v>
+        <v>2.7302238549964386E-6</v>
       </c>
       <c r="AH30" s="8">
         <f t="shared" si="10"/>
-        <v>1.7101951582815359E-10</v>
+        <v>-2.3006046677821132E-11</v>
       </c>
       <c r="AI30" s="8">
         <f t="shared" si="11"/>
-        <v>-5.1573217407060864E-11</v>
+        <v>3.7125511374938397E-11</v>
       </c>
       <c r="AJ30" s="8">
         <f t="shared" si="12"/>
@@ -9735,7 +9735,7 @@
         <v>133</v>
       </c>
       <c r="C31" s="1">
-        <v>152.4</v>
+        <v>304.8</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -9755,35 +9755,35 @@
       </c>
       <c r="Q31" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615067929029465</v>
+        <v>0.36467912048101425</v>
       </c>
       <c r="R31" s="8">
         <f t="shared" si="0"/>
-        <v>2.7065659158331812E-9</v>
+        <v>3.3939701049590099E-9</v>
       </c>
       <c r="S31" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068674087524</v>
+        <v>0.36467912793159485</v>
       </c>
       <c r="T31" s="8">
         <f t="shared" si="1"/>
-        <v>-5.556046567267714E-9</v>
+        <v>-5.0231110937382084E-9</v>
       </c>
       <c r="U31" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615068301558495</v>
+        <v>0.36467912420630455</v>
       </c>
       <c r="V31" s="8">
         <f t="shared" si="2"/>
-        <v>-1.4247403257172664E-9</v>
+        <v>-8.1457052214517489E-10</v>
       </c>
       <c r="W31" s="8">
         <f t="shared" si="4"/>
-        <v>-3.856153604499418E-18</v>
+        <v>-2.7646280005415747E-18</v>
       </c>
       <c r="X31" s="8">
         <f t="shared" si="5"/>
-        <v>7.9159235959493026E-18</v>
+        <v>4.091678226419553E-18</v>
       </c>
       <c r="Y31" s="8">
         <f t="shared" si="6"/>
@@ -9794,32 +9794,32 @@
       </c>
       <c r="AB31" s="8">
         <f t="shared" si="13"/>
-        <v>945.14533877372742</v>
+        <v>1066.8044090270996</v>
       </c>
       <c r="AC31" s="8">
-        <v>-7.7280752748265513E-6</v>
+        <v>-8.4264323731986224E-6</v>
       </c>
       <c r="AD31" s="8">
         <f t="shared" si="14"/>
-        <v>945.1453685760498</v>
+        <v>1066.804438829422</v>
       </c>
       <c r="AE31" s="8">
-        <v>6.6734879737850861E-6</v>
+        <v>2.7302238549964386E-6</v>
       </c>
       <c r="AF31" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535367488861</v>
+        <v>1066.8044239282608</v>
       </c>
       <c r="AG31" s="8">
-        <v>-5.2729376420757035E-7</v>
+        <v>-2.8481041454142542E-6</v>
       </c>
       <c r="AH31" s="8">
         <f t="shared" si="10"/>
-        <v>4.074965901742746E-12</v>
+        <v>2.3999356973159868E-11</v>
       </c>
       <c r="AI31" s="8">
         <f t="shared" si="11"/>
-        <v>-3.5188885940910896E-12</v>
+        <v>-7.7759618793242423E-12</v>
       </c>
       <c r="AJ31" s="8">
         <f t="shared" si="12"/>
@@ -9842,35 +9842,35 @@
       </c>
       <c r="Q32" s="8">
         <f t="shared" si="7"/>
-        <v>0.35615067929029465</v>
+        <v>0.36467912048101425</v>
       </c>
       <c r="R32" s="8">
         <f t="shared" si="0"/>
-        <v>2.7065659158331812E-9</v>
+        <v>3.3939701049590099E-9</v>
       </c>
       <c r="S32" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068301558495</v>
+        <v>0.36467912420630455</v>
       </c>
       <c r="T32" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4247403257172664E-9</v>
+        <v>-8.1457052214517489E-10</v>
       </c>
       <c r="U32" s="8">
         <f t="shared" si="3"/>
-        <v>0.3561506811529398</v>
+        <v>0.3646791223436594</v>
       </c>
       <c r="V32" s="8">
         <f t="shared" si="2"/>
-        <v>6.4091282281353301E-10</v>
+        <v>1.2896997914069175E-9</v>
       </c>
       <c r="W32" s="8">
         <f t="shared" si="4"/>
-        <v>1.7346728012475394E-18</v>
+        <v>4.3772025364069489E-18</v>
       </c>
       <c r="X32" s="8">
         <f t="shared" si="5"/>
-        <v>-9.1313434393172566E-19</v>
+        <v>-1.0505514324968559E-18</v>
       </c>
       <c r="Y32" s="8">
         <f t="shared" si="6"/>
@@ -9881,32 +9881,32 @@
       </c>
       <c r="AB32" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535367488861</v>
+        <v>1066.8044239282608</v>
       </c>
       <c r="AC32" s="8">
-        <v>-5.2729376420757035E-7</v>
+        <v>-2.8481041454142542E-6</v>
       </c>
       <c r="AD32" s="8">
         <f t="shared" si="14"/>
-        <v>945.1453685760498</v>
+        <v>1066.804438829422</v>
       </c>
       <c r="AE32" s="8">
-        <v>6.6734879737850861E-6</v>
+        <v>2.7302238549964386E-6</v>
       </c>
       <c r="AF32" s="8">
         <f t="shared" si="9"/>
-        <v>945.14536112546921</v>
+        <v>1066.8044313788414</v>
       </c>
       <c r="AG32" s="8">
-        <v>2.9582652132376097E-6</v>
+        <v>-2.0339336970209843E-7</v>
       </c>
       <c r="AH32" s="8">
         <f t="shared" si="10"/>
-        <v>-1.55987479981237E-12</v>
+        <v>5.7928549939832049E-13</v>
       </c>
       <c r="AI32" s="8">
         <f t="shared" si="11"/>
-        <v>1.9741947323807962E-11</v>
+        <v>-5.55309429908779E-13</v>
       </c>
       <c r="AJ32" s="8">
         <f t="shared" si="12"/>
@@ -9924,7 +9924,7 @@
       </c>
       <c r="G33">
         <f xml:space="preserve"> $C$37 * (0.0268 * $C$17)</f>
-        <v>20.263916405448111</v>
+        <v>22.872287019799117</v>
       </c>
       <c r="H33" t="s">
         <v>13</v>
@@ -9934,35 +9934,35 @@
       </c>
       <c r="Q33" s="8">
         <f t="shared" si="7"/>
-        <v>0.3561506811529398</v>
+        <v>0.3646791223436594</v>
       </c>
       <c r="R33" s="8">
         <f t="shared" si="0"/>
-        <v>6.4091282281353301E-10</v>
+        <v>1.2896997914069175E-9</v>
       </c>
       <c r="S33" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068301558495</v>
+        <v>0.36467912420630455</v>
       </c>
       <c r="T33" s="8">
         <f t="shared" si="1"/>
-        <v>-1.4247403257172664E-9</v>
+        <v>-8.1457052214517489E-10</v>
       </c>
       <c r="U33" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615068208426237</v>
+        <v>0.36467912327498198</v>
       </c>
       <c r="V33" s="8">
         <f t="shared" si="2"/>
-        <v>-3.919137792074423E-10</v>
+        <v>2.375646346308713E-10</v>
       </c>
       <c r="W33" s="8">
         <f t="shared" si="4"/>
-        <v>-2.5118256653136157E-19</v>
+        <v>3.0638705972909528E-19</v>
       </c>
       <c r="X33" s="8">
         <f t="shared" si="5"/>
-        <v>5.5837536544109617E-19</v>
+        <v>-1.9351314847449653E-19</v>
       </c>
       <c r="Y33" s="8">
         <f t="shared" si="6"/>
@@ -9973,32 +9973,32 @@
       </c>
       <c r="AB33" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535367488861</v>
+        <v>1066.8044313788414</v>
       </c>
       <c r="AC33" s="8">
-        <v>-5.2729376420757035E-7</v>
+        <v>-2.0339336970209843E-7</v>
       </c>
       <c r="AD33" s="8">
         <f t="shared" si="14"/>
-        <v>945.14536112546921</v>
+        <v>1066.804438829422</v>
       </c>
       <c r="AE33" s="8">
-        <v>2.9582652132376097E-6</v>
+        <v>2.7302238549964386E-6</v>
       </c>
       <c r="AF33" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535740017891</v>
+        <v>1066.8044351041317</v>
       </c>
       <c r="AG33" s="8">
-        <v>1.3303177865964244E-6</v>
+        <v>1.2634152426471701E-6</v>
       </c>
       <c r="AH33" s="8">
         <f t="shared" si="10"/>
-        <v>-7.014682732867119E-13</v>
+        <v>-2.5697028353500226E-13</v>
       </c>
       <c r="AI33" s="8">
         <f t="shared" si="11"/>
-        <v>3.9354328306394564E-12</v>
+        <v>3.4494064342414176E-12</v>
       </c>
       <c r="AJ33" s="8">
         <f t="shared" si="12"/>
@@ -10020,7 +10020,7 @@
       </c>
       <c r="G34">
         <f xml:space="preserve"> $C$37 * (11.5 * ($C$17*2.20462/1000)^0.4 * 0.453592)</f>
-        <v>5.5973975388126549</v>
+        <v>5.8751726750980913</v>
       </c>
       <c r="H34" t="s">
         <v>13</v>
@@ -10030,35 +10030,35 @@
       </c>
       <c r="Q34" s="8">
         <f t="shared" si="7"/>
-        <v>0.3561506811529398</v>
+        <v>0.36467912327498198</v>
       </c>
       <c r="R34" s="8">
         <f t="shared" si="0"/>
-        <v>6.4091282281353301E-10</v>
+        <v>2.375646346308713E-10</v>
       </c>
       <c r="S34" s="8">
         <f t="shared" si="8"/>
-        <v>0.35615068208426237</v>
+        <v>0.36467912420630455</v>
       </c>
       <c r="T34" s="8">
         <f t="shared" si="1"/>
-        <v>-3.919137792074423E-10</v>
+        <v>-8.1457052214517489E-10</v>
       </c>
       <c r="U34" s="8">
         <f t="shared" si="3"/>
-        <v>0.35615068161860108</v>
+        <v>0.36467912374064326</v>
       </c>
       <c r="V34" s="8">
         <f t="shared" si="2"/>
-        <v>1.2449952180304535E-10</v>
+        <v>-2.885029437571518E-10</v>
       </c>
       <c r="W34" s="8">
         <f t="shared" si="4"/>
-        <v>7.9793339957724797E-20</v>
+        <v>-6.8538096423598578E-20</v>
       </c>
       <c r="X34" s="8">
         <f t="shared" si="5"/>
-        <v>-4.8793078099350866E-20</v>
+        <v>2.3500599353668316E-19</v>
       </c>
       <c r="Y34" s="8">
         <f t="shared" si="6"/>
@@ -10069,32 +10069,32 @@
       </c>
       <c r="AB34" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535367488861</v>
+        <v>1066.8044313788414</v>
       </c>
       <c r="AC34" s="8">
-        <v>-5.2729376420757035E-7</v>
+        <v>-2.0339336970209843E-7</v>
       </c>
       <c r="AD34" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535740017891</v>
+        <v>1066.8044351041317</v>
       </c>
       <c r="AE34" s="8">
-        <v>1.3303177865964244E-6</v>
+        <v>1.2634152426471701E-6</v>
       </c>
       <c r="AF34" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535553753376</v>
+        <v>1066.8044332414865</v>
       </c>
       <c r="AG34" s="8">
-        <v>4.0151212488126475E-7</v>
+        <v>5.3001110700279241E-7</v>
       </c>
       <c r="AH34" s="8">
         <f t="shared" si="10"/>
-        <v>-2.1171483970362216E-13</v>
+        <v>-1.0780074503283741E-13</v>
       </c>
       <c r="AI34" s="8">
         <f t="shared" si="11"/>
-        <v>5.3413872126367127E-13</v>
+        <v>6.6962411135962821E-13</v>
       </c>
       <c r="AJ34" s="8">
         <f t="shared" si="12"/>
@@ -10116,7 +10116,7 @@
       </c>
       <c r="G35">
         <f xml:space="preserve"> $C$37 * (8 * ($C$17/1000))</f>
-        <v>6.0489302702830177</v>
+        <v>6.8275483641191386</v>
       </c>
       <c r="H35" t="s">
         <v>13</v>
@@ -10126,32 +10126,32 @@
       </c>
       <c r="AB35" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535367488861</v>
+        <v>1066.8044313788414</v>
       </c>
       <c r="AC35">
-        <v>-5.2729376420757035E-7</v>
+        <v>-2.0339336970209843E-7</v>
       </c>
       <c r="AD35" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535553753376</v>
+        <v>1066.8044332414865</v>
       </c>
       <c r="AE35">
-        <v>4.0151212488126475E-7</v>
+        <v>5.3001110700279241E-7</v>
       </c>
       <c r="AF35" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535460621119</v>
+        <v>1066.804432310164</v>
       </c>
       <c r="AG35">
-        <v>-6.289099019340938E-8</v>
+        <v>1.6330886865034699E-7</v>
       </c>
       <c r="AH35" s="8">
         <f t="shared" si="10"/>
-        <v>3.3162026953824224E-14</v>
+        <v>-3.3215941097031458E-14</v>
       </c>
       <c r="AI35" s="8">
         <f t="shared" si="11"/>
-        <v>-2.5251495108442584E-14</v>
+        <v>8.6555514256744032E-14</v>
       </c>
       <c r="AJ35" s="8">
         <f t="shared" si="12"/>
@@ -10173,7 +10173,7 @@
       </c>
       <c r="G36">
         <f xml:space="preserve"> $C$37 * (13 * ($C$17*2.20462/1000)^1.3 * 0.453592)</f>
-        <v>12.2512605691158</v>
+        <v>14.339791807013539</v>
       </c>
       <c r="H36" t="s">
         <v>13</v>
@@ -10183,32 +10183,32 @@
       </c>
       <c r="AB36" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535460621119</v>
+        <v>1066.8044313788414</v>
       </c>
       <c r="AC36">
-        <v>-6.289099019340938E-8</v>
+        <v>-2.0339336970209843E-7</v>
       </c>
       <c r="AD36" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535553753376</v>
+        <v>1066.804432310164</v>
       </c>
       <c r="AE36">
-        <v>4.0151212488126475E-7</v>
+        <v>1.6330886865034699E-7</v>
       </c>
       <c r="AF36" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535507187247</v>
+        <v>1066.8044318445027</v>
       </c>
       <c r="AG36">
-        <v>1.6931062418734655E-7</v>
+        <v>-2.0042307369294576E-8</v>
       </c>
       <c r="AH36" s="8">
         <f t="shared" si="10"/>
-        <v>-1.0648112805406433E-14</v>
+        <v>4.0764724324460235E-15</v>
       </c>
       <c r="AI36" s="8">
         <f t="shared" si="11"/>
-        <v>6.7980268482434772E-14</v>
+        <v>-3.2730865416220096E-15</v>
       </c>
       <c r="AJ36" s="8">
         <f t="shared" si="12"/>
@@ -10227,7 +10227,7 @@
       </c>
       <c r="G37" s="3">
         <f>$C$17 - $C$26 - SUM(G24:G36)</f>
-        <v>-3.0513547244481742E-10</v>
+        <v>-7.0440364652313292E-10</v>
       </c>
       <c r="H37" s="3" t="s">
         <v>13</v>
@@ -10237,32 +10237,32 @@
       </c>
       <c r="AB37" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535460621119</v>
+        <v>1066.8044318445027</v>
       </c>
       <c r="AC37">
-        <v>-6.289099019340938E-8</v>
+        <v>-2.0042307369294576E-8</v>
       </c>
       <c r="AD37" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535507187247</v>
+        <v>1066.804432310164</v>
       </c>
       <c r="AE37">
-        <v>1.6931062418734655E-7</v>
+        <v>1.6330886865034699E-7</v>
       </c>
       <c r="AF37" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535483904183</v>
+        <v>1066.8044320773333</v>
       </c>
       <c r="AG37">
-        <v>5.3209760153549723E-8</v>
+        <v>7.1633280640526209E-8</v>
       </c>
       <c r="AH37" s="8">
         <f t="shared" si="10"/>
-        <v>-3.3464145040105608E-15</v>
+        <v>-1.4356962284683649E-15</v>
       </c>
       <c r="AI37" s="8">
         <f t="shared" si="11"/>
-        <v>9.0089777044565043E-15</v>
+        <v>1.1698350019117139E-14</v>
       </c>
       <c r="AJ37" s="8">
         <f t="shared" si="12"/>
@@ -10282,32 +10282,32 @@
       </c>
       <c r="AB38" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535460621119</v>
+        <v>1066.8044318445027</v>
       </c>
       <c r="AC38">
-        <v>-6.289099019340938E-8</v>
+        <v>-2.0042307369294576E-8</v>
       </c>
       <c r="AD38" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535483904183</v>
+        <v>1066.8044320773333</v>
       </c>
       <c r="AE38">
-        <v>5.3209760153549723E-8</v>
+        <v>7.1633280640526209E-8</v>
       </c>
       <c r="AF38" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535472262651</v>
+        <v>1066.804431960918</v>
       </c>
       <c r="AG38">
-        <v>-4.8404444896732457E-9</v>
+        <v>2.5795429792196956E-8</v>
       </c>
       <c r="AH38" s="8">
         <f t="shared" si="10"/>
-        <v>3.0442034693178256E-16</v>
+        <v>-5.169999326182699E-16</v>
       </c>
       <c r="AI38" s="8">
         <f t="shared" si="11"/>
-        <v>-2.5755889033208479E-16</v>
+        <v>1.8478112615474352E-15</v>
       </c>
       <c r="AJ38" s="8">
         <f t="shared" si="12"/>
@@ -10315,42 +10315,42 @@
       </c>
     </row>
     <row r="39" spans="2:36" x14ac:dyDescent="0.2">
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
       <c r="AA39" s="8">
         <v>35</v>
       </c>
       <c r="AB39" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535472262651</v>
+        <v>1066.8044318445027</v>
       </c>
       <c r="AC39">
-        <v>-4.8404444896732457E-9</v>
+        <v>-2.0042307369294576E-8</v>
       </c>
       <c r="AD39" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535483904183</v>
+        <v>1066.804431960918</v>
       </c>
       <c r="AE39">
-        <v>5.3209760153549723E-8</v>
+        <v>2.5795429792196956E-8</v>
       </c>
       <c r="AF39" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535478083417</v>
+        <v>1066.8044319027103</v>
       </c>
       <c r="AG39">
-        <v>2.4184828362194821E-8</v>
+        <v>2.8766180548700504E-9</v>
       </c>
       <c r="AH39" s="8">
         <f t="shared" si="10"/>
-        <v>-1.1706531917947915E-16</v>
+        <v>-5.7654063239767841E-17</v>
       </c>
       <c r="AI39" s="8">
         <f t="shared" si="11"/>
-        <v>1.2868689165071532E-15</v>
+        <v>7.4203599073366555E-17</v>
       </c>
       <c r="AJ39" s="8">
         <f t="shared" si="12"/>
@@ -10374,32 +10374,32 @@
       </c>
       <c r="AB40" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535472262651</v>
+        <v>1066.8044318445027</v>
       </c>
       <c r="AC40">
-        <v>-4.8404444896732457E-9</v>
+        <v>-2.0042307369294576E-8</v>
       </c>
       <c r="AD40" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535478083417</v>
+        <v>1066.8044319027103</v>
       </c>
       <c r="AE40">
-        <v>2.4184828362194821E-8</v>
+        <v>2.8766180548700504E-9</v>
       </c>
       <c r="AF40" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535475173034</v>
+        <v>1066.8044318736065</v>
       </c>
       <c r="AG40">
-        <v>9.672135092841927E-9</v>
+        <v>-8.5829015006311238E-9</v>
       </c>
       <c r="AH40" s="8">
         <f t="shared" si="10"/>
-        <v>-4.6817433013521932E-17</v>
+        <v>1.7202114999602865E-16</v>
       </c>
       <c r="AI40" s="8">
         <f t="shared" si="11"/>
-        <v>2.3391892711634328E-16</v>
+        <v>-2.468972941988674E-17</v>
       </c>
       <c r="AJ40" s="8">
         <f t="shared" si="12"/>
@@ -10412,7 +10412,7 @@
       </c>
       <c r="G41">
         <f>ROUND($C$26/$C$17 * 100, 2)</f>
-        <v>42.32</v>
+        <v>37.5</v>
       </c>
       <c r="H41" t="s">
         <v>92</v>
@@ -10422,32 +10422,32 @@
       </c>
       <c r="AB41" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535472262651</v>
+        <v>1066.8044318736065</v>
       </c>
       <c r="AC41">
-        <v>-4.8404444896732457E-9</v>
+        <v>-8.5829015006311238E-9</v>
       </c>
       <c r="AD41" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535475173034</v>
+        <v>1066.8044319027103</v>
       </c>
       <c r="AE41">
-        <v>9.672135092841927E-9</v>
+        <v>2.8766180548700504E-9</v>
       </c>
       <c r="AF41" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535473717842</v>
+        <v>1066.8044318881584</v>
       </c>
       <c r="AG41">
-        <v>2.4159589884220622E-9</v>
+        <v>-2.8531985662993975E-9</v>
       </c>
       <c r="AH41" s="8">
         <f t="shared" si="10"/>
-        <v>-1.169431537278412E-17</v>
+        <v>2.448872225628967E-17</v>
       </c>
       <c r="AI41" s="8">
         <f t="shared" si="11"/>
-        <v>2.3367481714783911E-17</v>
+        <v>-8.2075625099461894E-18</v>
       </c>
       <c r="AJ41" s="8">
         <f t="shared" si="12"/>
@@ -10460,7 +10460,7 @@
       </c>
       <c r="G42">
         <f>ROUND(G24/$C$17 * 100, 2)</f>
-        <v>10.83</v>
+        <v>17.23</v>
       </c>
       <c r="H42" t="s">
         <v>92</v>
@@ -10470,32 +10470,32 @@
       </c>
       <c r="AB42" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535472262651</v>
+        <v>1066.8044318881584</v>
       </c>
       <c r="AC42">
-        <v>-4.8404444896732457E-9</v>
+        <v>-2.8531985662993975E-9</v>
       </c>
       <c r="AD42" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535473717842</v>
+        <v>1066.8044319027103</v>
       </c>
       <c r="AE42">
-        <v>2.4159589884220622E-9</v>
+        <v>2.8766180548700504E-9</v>
       </c>
       <c r="AF42" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535472990246</v>
+        <v>1066.8044318954344</v>
       </c>
       <c r="AG42">
-        <v>-1.2122427506255917E-9</v>
+        <v>1.1709744285326451E-11</v>
       </c>
       <c r="AH42" s="8">
         <f t="shared" si="10"/>
-        <v>5.867793742411984E-18</v>
+        <v>-3.3410225606625993E-20</v>
       </c>
       <c r="AI42" s="8">
         <f t="shared" si="11"/>
-        <v>-2.9287287695233829E-18</v>
+        <v>3.3684461829081464E-20</v>
       </c>
       <c r="AJ42" s="8">
         <f t="shared" si="12"/>
@@ -10508,7 +10508,7 @@
       </c>
       <c r="G43">
         <f>ROUND(SUM(G25:G27)/$C$17 * 100, 2)</f>
-        <v>13.47</v>
+        <v>14.18</v>
       </c>
       <c r="H43" t="s">
         <v>92</v>
@@ -10518,32 +10518,32 @@
       </c>
       <c r="AB43" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535472990246</v>
+        <v>1066.8044318881584</v>
       </c>
       <c r="AC43">
-        <v>-1.2122427506255917E-9</v>
+        <v>-2.8531985662993975E-9</v>
       </c>
       <c r="AD43" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535473717842</v>
+        <v>1066.8044318954344</v>
       </c>
       <c r="AE43">
-        <v>2.4159589884220622E-9</v>
+        <v>1.1709744285326451E-11</v>
       </c>
       <c r="AF43" s="8">
         <f t="shared" si="9"/>
-        <v>945.14535473354044</v>
+        <v>1066.8044318917964</v>
       </c>
       <c r="AG43">
-        <v>6.0174443206051365E-10</v>
+        <v>-1.4208580978447571E-9</v>
       </c>
       <c r="AH43" s="8">
         <f t="shared" si="10"/>
-        <v>-7.2946032549467157E-19</v>
+        <v>4.0539902876855501E-18</v>
       </c>
       <c r="AI43" s="8">
         <f t="shared" si="11"/>
-        <v>1.4537898693695269E-18</v>
+        <v>-1.6637884991497456E-20</v>
       </c>
       <c r="AJ43" s="8">
         <f t="shared" si="12"/>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="G44">
         <f>ROUND(SUM(G28:G32)/$C$17 * 100, 2)</f>
-        <v>28.71</v>
+        <v>26.41</v>
       </c>
       <c r="H44" t="s">
         <v>92</v>
@@ -10566,32 +10566,32 @@
       </c>
       <c r="AB44" s="8">
         <f t="shared" si="13"/>
-        <v>945.14535472990246</v>
+        <v>1066.8044318917964</v>
       </c>
       <c r="AC44">
-        <v>-1.2122427506255917E-9</v>
+        <v>-1.4208580978447571E-9</v>
       </c>
       <c r="AD44" s="8">
         <f t="shared" si="14"/>
-        <v>945.14535473354044</v>
+        <v>1066.8044318954344</v>
       </c>
       <c r="AE44">
-        <v>6.0174443206051365E-10</v>
+        <v>1.1709744285326451E-11</v>
       </c>
       <c r="AF44" s="11">
         <f t="shared" si="9"/>
-        <v>945.14535473172145</v>
+        <v>1066.8044318936154</v>
       </c>
       <c r="AG44">
-        <v>-3.0513547244481742E-10</v>
+        <v>-7.0440364652313292E-10</v>
       </c>
       <c r="AH44" s="8">
         <f t="shared" si="10"/>
-        <v>3.6989826442994492E-19</v>
+        <v>1.0008576253137693E-18</v>
       </c>
       <c r="AI44" s="8">
         <f t="shared" si="11"/>
-        <v>-1.8361357156782317E-19</v>
+        <v>-8.2483865744373692E-21</v>
       </c>
       <c r="AJ44" s="8">
         <f t="shared" si="12"/>
@@ -10604,7 +10604,7 @@
       </c>
       <c r="G45">
         <f>ROUND(SUM(G33:G36)/$C$17*100, 2)</f>
-        <v>4.67</v>
+        <v>4.68</v>
       </c>
       <c r="H45" t="s">
         <v>92</v>
@@ -10616,7 +10616,7 @@
       </c>
       <c r="G46" s="3">
         <f>SUM(G41:G45)</f>
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>92</v>
@@ -10633,16 +10633,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="B25:D25"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="G38">
     <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="FALSE">
